--- a/epictrack-api/src/api/templates/event_templates/assessment/001_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/001_EAC_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91934BFA-B833-4C63-A486-615160EF05CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20765A8D-D6C0-4617-B392-B509ADE561E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="392">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -1077,9 +1077,6 @@
     <t>addPhase "DPD Development (Proponent Time)" (copy of the origal PHASE)</t>
   </si>
   <si>
-    <t>addPhase "Readiness Decision" (copy of the origal PHASE)</t>
-  </si>
-  <si>
     <t>set "Process Planning | Start of Process Planning (Date Capture Milestone)" ACTUAL to thisEventActual +1</t>
   </si>
   <si>
@@ -1293,12 +1290,6 @@
     <t>{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of Detailed Project Description", "start_at": 21 }</t>
   </si>
   <si>
-    <t>{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised DPD Development (Proponent Time)", "legislated": false }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised Readiness Decision", "legislated": false }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Process Planning","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of Process Planning (Date Capture Milestone)", "start_at": 1 }</t>
   </si>
   <si>
@@ -1353,27 +1344,15 @@
     <t>{"all_future_events":false}</t>
   </si>
   <si>
-    <t>{"phase_name":"Termination Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Termination Decision", "legislated": false }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Termination Package Referred to Minister", "start_at": 5 }</t>
   </si>
   <si>
     <t>{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Last Day of EAC Assessment Readiness Decision (Date Capture Milestone)", "start_at": 7 }</t>
   </si>
   <si>
-    <t>{"phase_name":"Further Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Further Readiness Decision", "legislated": false }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Further Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Readiness Decision Report referred to CEAO for Further Decision", "start_at": 1 }</t>
   </si>
   <si>
-    <t>{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "DPD Development (Proponent Time)", "legislated": false }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Readiness Decision", "legislated": false }</t>
-  </si>
-  <si>
     <t>Visibility</t>
   </si>
   <si>
@@ -1402,6 +1381,21 @@
   </si>
   <si>
     <t>{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Termination Package Referred to Minister", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Revised Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Detailed Project Description Received", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised DPD Development (Proponent Time)", "legislated": false },{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised Readiness Decision", "legislated": false }]</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Termination Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Termination Decision", "legislated": false }]</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Further Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Further Readiness Decision", "legislated": false }]</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Revised DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of Detailed Project Description Development", "start_at": 1 }</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2184,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
@@ -2204,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>19</v>
@@ -2219,7 +2213,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -2233,7 +2227,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>19</v>
@@ -2248,7 +2242,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -2262,7 +2256,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>19</v>
@@ -2277,7 +2271,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -2291,7 +2285,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>19</v>
@@ -2306,7 +2300,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -2320,7 +2314,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>19</v>
@@ -2335,7 +2329,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I6" s="3">
         <v>5</v>
@@ -2349,7 +2343,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>19</v>
@@ -2364,7 +2358,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I7" s="3">
         <v>6</v>
@@ -2378,7 +2372,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>19</v>
@@ -2393,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I8" s="3">
         <v>7</v>
@@ -2407,7 +2401,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>19</v>
@@ -2422,7 +2416,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I9" s="3">
         <v>8</v>
@@ -2436,7 +2430,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>19</v>
@@ -2451,7 +2445,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I10" s="3">
         <v>9</v>
@@ -2465,7 +2459,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>19</v>
@@ -2480,7 +2474,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I11" s="3">
         <v>10</v>
@@ -2494,7 +2488,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>19</v>
@@ -2509,7 +2503,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I12" s="3">
         <v>11</v>
@@ -2523,7 +2517,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>19</v>
@@ -2538,7 +2532,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I13" s="3">
         <v>12</v>
@@ -3357,11 +3351,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
   <dimension ref="A1:N319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3414,7 +3408,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>42</v>
@@ -3456,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M2" s="8" t="b">
         <v>1</v>
@@ -3498,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M3" s="8" t="b">
         <v>1</v>
@@ -3540,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M4" s="8" t="b">
         <v>1</v>
@@ -3585,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M5" s="8" t="b">
         <v>1</v>
@@ -3627,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M6" s="8" t="b">
         <v>1</v>
@@ -3669,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M7" s="8" t="b">
         <v>1</v>
@@ -3714,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M8" s="8" t="b">
         <v>1</v>
@@ -3756,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M9" s="8" t="b">
         <v>1</v>
@@ -3798,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M10" s="8" t="b">
         <v>0</v>
@@ -3840,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M11" s="8" t="b">
         <v>0</v>
@@ -3885,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M12" s="8" t="b">
         <v>0</v>
@@ -3930,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M13" s="8" t="b">
         <v>0</v>
@@ -3972,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M14" s="8" t="b">
         <v>0</v>
@@ -4014,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M15" s="8" t="b">
         <v>0</v>
@@ -4056,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M16" s="8" t="b">
         <v>1</v>
@@ -4098,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M17" s="8" t="b">
         <v>1</v>
@@ -4143,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M18" s="8" t="b">
         <v>1</v>
@@ -4188,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M19" s="8" t="b">
         <v>1</v>
@@ -4230,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M20" s="8" t="b">
         <v>1</v>
@@ -4272,7 +4266,7 @@
         <v>30</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M21" s="8" t="b">
         <v>1</v>
@@ -4317,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M22" s="8" t="b">
         <v>1</v>
@@ -4362,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M23" s="8" t="b">
         <v>1</v>
@@ -4407,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M24" s="8" t="b">
         <v>1</v>
@@ -4452,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M25" s="8" t="b">
         <v>1</v>
@@ -4494,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M26" s="8" t="b">
         <v>1</v>
@@ -4539,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M27" s="8" t="b">
         <v>1</v>
@@ -4581,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M28" s="8" t="b">
         <v>1</v>
@@ -4626,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M29" s="8" t="b">
         <v>1</v>
@@ -4668,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M30" s="8" t="b">
         <v>1</v>
@@ -4710,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M31" s="8" t="b">
         <v>1</v>
@@ -4755,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M32" s="8" t="b">
         <v>1</v>
@@ -4797,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M33" s="8" t="b">
         <v>0</v>
@@ -4839,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M34" s="8" t="b">
         <v>0</v>
@@ -4884,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M35" s="8" t="b">
         <v>0</v>
@@ -4926,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M36" s="8" t="b">
         <v>0</v>
@@ -4971,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M37" s="8" t="b">
         <v>0</v>
@@ -5016,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M38" s="8" t="b">
         <v>0</v>
@@ -5058,7 +5052,7 @@
         <v>30</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M39" s="8" t="b">
         <v>0</v>
@@ -5103,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M40" s="8" t="b">
         <v>0</v>
@@ -5148,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M41" s="8" t="b">
         <v>0</v>
@@ -5193,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M42" s="8" t="b">
         <v>0</v>
@@ -5238,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M43" s="8" t="b">
         <v>0</v>
@@ -5280,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M44" s="8" t="b">
         <v>0</v>
@@ -5322,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M45" s="8" t="b">
         <v>0</v>
@@ -5364,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M46" s="8" t="b">
         <v>0</v>
@@ -5409,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M47" s="8" t="b">
         <v>0</v>
@@ -5454,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M48" s="8" t="b">
         <v>0</v>
@@ -5496,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M49" s="8" t="b">
         <v>0</v>
@@ -5541,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M50" s="8" t="b">
         <v>0</v>
@@ -5586,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M51" s="8" t="b">
         <v>0</v>
@@ -5631,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M52" s="8" t="b">
         <v>0</v>
@@ -5676,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M53" s="8" t="b">
         <v>0</v>
@@ -5721,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M54" s="8" t="b">
         <v>0</v>
@@ -5766,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M55" s="8" t="b">
         <v>0</v>
@@ -5808,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M56" s="8" t="b">
         <v>0</v>
@@ -5853,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M57" s="8" t="b">
         <v>0</v>
@@ -5898,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M58" s="8" t="b">
         <v>0</v>
@@ -5940,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M59" s="8" t="b">
         <v>0</v>
@@ -5985,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M60" s="8" t="b">
         <v>0</v>
@@ -6030,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M61" s="8" t="b">
         <v>0</v>
@@ -6072,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M62" s="8" t="b">
         <v>0</v>
@@ -6114,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M63" s="8" t="b">
         <v>1</v>
@@ -6159,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M64" s="8" t="b">
         <v>1</v>
@@ -6204,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M65" s="8" t="b">
         <v>1</v>
@@ -6246,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M66" s="8" t="b">
         <v>1</v>
@@ -6288,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M67" s="8" t="b">
         <v>1</v>
@@ -6330,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M68" s="8" t="b">
         <v>1</v>
@@ -6375,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M69" s="8" t="b">
         <v>1</v>
@@ -6417,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M70" s="8" t="b">
         <v>1</v>
@@ -6459,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M71" s="8" t="b">
         <v>0</v>
@@ -6501,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M72" s="8" t="b">
         <v>0</v>
@@ -6546,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M73" s="8" t="b">
         <v>0</v>
@@ -6591,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M74" s="8" t="b">
         <v>0</v>
@@ -6633,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M75" s="8" t="b">
         <v>0</v>
@@ -6678,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M76" s="8" t="b">
         <v>0</v>
@@ -6723,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M77" s="8" t="b">
         <v>0</v>
@@ -6765,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M78" s="8" t="b">
         <v>0</v>
@@ -6810,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M79" s="8" t="b">
         <v>0</v>
@@ -6855,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M80" s="8" t="b">
         <v>0</v>
@@ -6897,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M81" s="8" t="b">
         <v>0</v>
@@ -6939,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M82" s="8" t="b">
         <v>1</v>
@@ -6981,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M83" s="8" t="b">
         <v>1</v>
@@ -7026,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M84" s="8" t="b">
         <v>1</v>
@@ -7071,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M85" s="8" t="b">
         <v>1</v>
@@ -7113,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M86" s="8" t="b">
         <v>1</v>
@@ -7158,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M87" s="8" t="b">
         <v>1</v>
@@ -7200,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M88" s="8" t="b">
         <v>1</v>
@@ -7242,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M89" s="8" t="b">
         <v>1</v>
@@ -7287,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M90" s="8" t="b">
         <v>1</v>
@@ -7329,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M91" s="8" t="b">
         <v>0</v>
@@ -7371,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M92" s="8" t="b">
         <v>0</v>
@@ -7416,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M93" s="8" t="b">
         <v>0</v>
@@ -7461,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M94" s="8" t="b">
         <v>0</v>
@@ -7503,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M95" s="8" t="b">
         <v>0</v>
@@ -7548,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M96" s="8" t="b">
         <v>0</v>
@@ -7593,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M97" s="8" t="b">
         <v>0</v>
@@ -7635,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M98" s="8" t="b">
         <v>0</v>
@@ -7680,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M99" s="8" t="b">
         <v>0</v>
@@ -7725,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M100" s="8" t="b">
         <v>0</v>
@@ -7767,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M101" s="8" t="b">
         <v>0</v>
@@ -7810,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="31" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="M102" s="32" t="b">
         <v>0</v>
@@ -7853,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="36" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="M103" s="37" t="b">
         <v>0</v>
@@ -7895,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M104" s="8" t="b">
         <v>1</v>
@@ -7940,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M105" s="8" t="b">
         <v>1</v>
@@ -7985,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M106" s="8" t="b">
         <v>1</v>
@@ -8027,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M107" s="8" t="b">
         <v>1</v>
@@ -8069,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M108" s="8" t="b">
         <v>0</v>
@@ -8111,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M109" s="8" t="b">
         <v>0</v>
@@ -8156,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M110" s="8" t="b">
         <v>0</v>
@@ -8201,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M111" s="8" t="b">
         <v>0</v>
@@ -8243,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M112" s="8" t="b">
         <v>0</v>
@@ -8288,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M113" s="8" t="b">
         <v>0</v>
@@ -8333,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M114" s="8" t="b">
         <v>0</v>
@@ -8375,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M115" s="8" t="b">
         <v>0</v>
@@ -8417,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M116" s="8" t="b">
         <v>1</v>
@@ -8462,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M117" s="8" t="b">
         <v>1</v>
@@ -8504,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M118" s="8" t="b">
         <v>1</v>
@@ -8546,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M119" s="8" t="b">
         <v>0</v>
@@ -8588,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M120" s="8" t="b">
         <v>0</v>
@@ -8633,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M121" s="8" t="b">
         <v>0</v>
@@ -8678,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M122" s="8" t="b">
         <v>0</v>
@@ -8720,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M123" s="8" t="b">
         <v>0</v>
@@ -8765,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M124" s="8" t="b">
         <v>0</v>
@@ -8810,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M125" s="8" t="b">
         <v>0</v>
@@ -8852,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M126" s="8" t="b">
         <v>0</v>
@@ -8895,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="L127" s="46" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="M127" s="41" t="b">
         <v>0</v>
@@ -8937,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M128" s="8" t="b">
         <v>1</v>
@@ -8982,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M129" s="8" t="b">
         <v>1</v>
@@ -9027,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M130" s="8" t="b">
         <v>1</v>
@@ -9069,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M131" s="8" t="b">
         <v>1</v>
@@ -9111,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M132" s="8" t="b">
         <v>1</v>
@@ -9153,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M133" s="8" t="b">
         <v>1</v>
@@ -9195,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M134" s="8" t="b">
         <v>1</v>
@@ -9237,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M135" s="8" t="b">
         <v>1</v>
@@ -9279,7 +9273,7 @@
         <v>30</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M136" s="8" t="b">
         <v>1</v>
@@ -9324,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M137" s="8" t="b">
         <v>1</v>
@@ -9369,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M138" s="8" t="b">
         <v>1</v>
@@ -9414,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M139" s="8" t="b">
         <v>1</v>
@@ -9459,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M140" s="8" t="b">
         <v>1</v>
@@ -9501,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M141" s="8" t="b">
         <v>1</v>
@@ -9543,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M142" s="8" t="b">
         <v>1</v>
@@ -9588,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M143" s="8" t="b">
         <v>1</v>
@@ -9630,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M144" s="8" t="b">
         <v>0</v>
@@ -9672,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M145" s="8" t="b">
         <v>0</v>
@@ -9714,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M146" s="8" t="b">
         <v>0</v>
@@ -9756,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M147" s="8" t="b">
         <v>0</v>
@@ -9798,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M148" s="8" t="b">
         <v>0</v>
@@ -9843,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M149" s="8" t="b">
         <v>0</v>
@@ -9888,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M150" s="8" t="b">
         <v>0</v>
@@ -9930,7 +9924,7 @@
         <v>30</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M151" s="8" t="b">
         <v>0</v>
@@ -9975,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M152" s="8" t="b">
         <v>0</v>
@@ -10020,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M153" s="8" t="b">
         <v>0</v>
@@ -10065,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M154" s="8" t="b">
         <v>0</v>
@@ -10110,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M155" s="8" t="b">
         <v>0</v>
@@ -10152,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M156" s="8" t="b">
         <v>0</v>
@@ -10194,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M157" s="8" t="b">
         <v>0</v>
@@ -10236,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M158" s="8" t="b">
         <v>0</v>
@@ -10281,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M159" s="8" t="b">
         <v>0</v>
@@ -10326,7 +10320,7 @@
         <v>0</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M160" s="8" t="b">
         <v>0</v>
@@ -10368,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M161" s="8" t="b">
         <v>0</v>
@@ -10413,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M162" s="8" t="b">
         <v>0</v>
@@ -10458,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M163" s="8" t="b">
         <v>0</v>
@@ -10503,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M164" s="8" t="b">
         <v>0</v>
@@ -10548,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M165" s="8" t="b">
         <v>0</v>
@@ -10593,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M166" s="8" t="b">
         <v>0</v>
@@ -10638,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M167" s="8" t="b">
         <v>0</v>
@@ -10680,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M168" s="8" t="b">
         <v>0</v>
@@ -10725,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M169" s="8" t="b">
         <v>0</v>
@@ -10770,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M170" s="8" t="b">
         <v>0</v>
@@ -10812,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M171" s="8" t="b">
         <v>0</v>
@@ -10857,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M172" s="8" t="b">
         <v>0</v>
@@ -10902,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M173" s="8" t="b">
         <v>0</v>
@@ -10944,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M174" s="8" t="b">
         <v>0</v>
@@ -10986,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M175" s="8" t="b">
         <v>1</v>
@@ -11031,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M176" s="8" t="b">
         <v>1</v>
@@ -11076,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M177" s="8" t="b">
         <v>1</v>
@@ -11118,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M178" s="8" t="b">
         <v>1</v>
@@ -11160,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M179" s="8" t="b">
         <v>1</v>
@@ -11202,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M180" s="8" t="b">
         <v>1</v>
@@ -11247,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M181" s="8" t="b">
         <v>1</v>
@@ -11289,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M182" s="8" t="b">
         <v>1</v>
@@ -11331,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M183" s="8" t="b">
         <v>0</v>
@@ -11373,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M184" s="8" t="b">
         <v>0</v>
@@ -11418,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M185" s="8" t="b">
         <v>0</v>
@@ -11460,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M186" s="8" t="b">
         <v>0</v>
@@ -11505,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M187" s="8" t="b">
         <v>0</v>
@@ -11550,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M188" s="8" t="b">
         <v>0</v>
@@ -11592,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M189" s="8" t="b">
         <v>0</v>
@@ -11637,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M190" s="8" t="b">
         <v>0</v>
@@ -11682,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M191" s="8" t="b">
         <v>0</v>
@@ -11724,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M192" s="8" t="b">
         <v>0</v>
@@ -11769,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M193" s="8" t="b">
         <v>0</v>
@@ -11814,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M194" s="8" t="b">
         <v>0</v>
@@ -11856,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M195" s="8" t="b">
         <v>0</v>
@@ -11898,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M196" s="8" t="b">
         <v>1</v>
@@ -11940,7 +11934,7 @@
         <v>0</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M197" s="8" t="b">
         <v>1</v>
@@ -11985,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M198" s="8" t="b">
         <v>1</v>
@@ -12030,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M199" s="8" t="b">
         <v>1</v>
@@ -12072,7 +12066,7 @@
         <v>30</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M200" s="8" t="b">
         <v>1</v>
@@ -12117,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M201" s="8" t="b">
         <v>1</v>
@@ -12162,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M202" s="8" t="b">
         <v>1</v>
@@ -12207,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M203" s="8" t="b">
         <v>1</v>
@@ -12252,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M204" s="8" t="b">
         <v>1</v>
@@ -12294,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M205" s="8" t="b">
         <v>1</v>
@@ -12339,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M206" s="8" t="b">
         <v>1</v>
@@ -12381,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M207" s="8" t="b">
         <v>1</v>
@@ -12426,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M208" s="8" t="b">
         <v>1</v>
@@ -12468,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="L209" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M209" s="8" t="b">
         <v>0</v>
@@ -12510,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M210" s="8" t="b">
         <v>0</v>
@@ -12555,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M211" s="8" t="b">
         <v>0</v>
@@ -12597,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="L212" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M212" s="8" t="b">
         <v>0</v>
@@ -12642,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M213" s="8" t="b">
         <v>0</v>
@@ -12687,7 +12681,7 @@
         <v>0</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M214" s="8" t="b">
         <v>0</v>
@@ -12729,7 +12723,7 @@
         <v>30</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M215" s="8" t="b">
         <v>0</v>
@@ -12774,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M216" s="8" t="b">
         <v>0</v>
@@ -12819,7 +12813,7 @@
         <v>0</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M217" s="8" t="b">
         <v>0</v>
@@ -12864,7 +12858,7 @@
         <v>0</v>
       </c>
       <c r="L218" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M218" s="8" t="b">
         <v>0</v>
@@ -12909,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M219" s="8" t="b">
         <v>0</v>
@@ -12951,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M220" s="8" t="b">
         <v>0</v>
@@ -12993,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M221" s="8" t="b">
         <v>0</v>
@@ -13035,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M222" s="8" t="b">
         <v>0</v>
@@ -13080,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M223" s="8" t="b">
         <v>0</v>
@@ -13125,7 +13119,7 @@
         <v>0</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M224" s="8" t="b">
         <v>0</v>
@@ -13167,7 +13161,7 @@
         <v>0</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M225" s="8" t="b">
         <v>0</v>
@@ -13212,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M226" s="8" t="b">
         <v>0</v>
@@ -13257,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="L227" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M227" s="8" t="b">
         <v>0</v>
@@ -13302,7 +13296,7 @@
         <v>0</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M228" s="8" t="b">
         <v>0</v>
@@ -13347,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M229" s="8" t="b">
         <v>0</v>
@@ -13392,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M230" s="8" t="b">
         <v>0</v>
@@ -13437,7 +13431,7 @@
         <v>0</v>
       </c>
       <c r="L231" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M231" s="8" t="b">
         <v>0</v>
@@ -13479,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="L232" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M232" s="8" t="b">
         <v>0</v>
@@ -13524,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="L233" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M233" s="8" t="b">
         <v>0</v>
@@ -13569,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M234" s="8" t="b">
         <v>0</v>
@@ -13611,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M235" s="8" t="b">
         <v>0</v>
@@ -13656,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="L236" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M236" s="8" t="b">
         <v>0</v>
@@ -13701,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="L237" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M237" s="8" t="b">
         <v>0</v>
@@ -13743,7 +13737,7 @@
         <v>0</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M238" s="8" t="b">
         <v>0</v>
@@ -13785,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="L239" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M239" s="8" t="b">
         <v>1</v>
@@ -13830,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="L240" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M240" s="8" t="b">
         <v>1</v>
@@ -13875,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M241" s="8" t="b">
         <v>1</v>
@@ -13917,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="L242" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M242" s="8" t="b">
         <v>1</v>
@@ -13959,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="L243" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M243" s="8" t="b">
         <v>1</v>
@@ -14001,7 +13995,7 @@
         <v>0</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M244" s="8" t="b">
         <v>1</v>
@@ -14046,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M245" s="8" t="b">
         <v>1</v>
@@ -14088,7 +14082,7 @@
         <v>0</v>
       </c>
       <c r="L246" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M246" s="8" t="b">
         <v>1</v>
@@ -14130,7 +14124,7 @@
         <v>0</v>
       </c>
       <c r="L247" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M247" s="8" t="b">
         <v>0</v>
@@ -14172,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M248" s="8" t="b">
         <v>0</v>
@@ -14217,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="L249" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M249" s="8" t="b">
         <v>0</v>
@@ -14259,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="L250" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M250" s="8" t="b">
         <v>0</v>
@@ -14304,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="L251" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M251" s="8" t="b">
         <v>0</v>
@@ -14349,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M252" s="8" t="b">
         <v>0</v>
@@ -14391,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M253" s="8" t="b">
         <v>0</v>
@@ -14436,7 +14430,7 @@
         <v>0</v>
       </c>
       <c r="L254" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M254" s="8" t="b">
         <v>0</v>
@@ -14481,7 +14475,7 @@
         <v>0</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M255" s="8" t="b">
         <v>0</v>
@@ -14523,7 +14517,7 @@
         <v>0</v>
       </c>
       <c r="L256" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M256" s="8" t="b">
         <v>0</v>
@@ -14568,7 +14562,7 @@
         <v>0</v>
       </c>
       <c r="L257" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M257" s="8" t="b">
         <v>0</v>
@@ -14613,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="L258" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M258" s="8" t="b">
         <v>0</v>
@@ -14655,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M259" s="8" t="b">
         <v>0</v>
@@ -14697,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="L260" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M260" s="8" t="b">
         <v>1</v>
@@ -14739,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="L261" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M261" s="8" t="b">
         <v>1</v>
@@ -14784,7 +14778,7 @@
         <v>0</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M262" s="8" t="b">
         <v>1</v>
@@ -14829,7 +14823,7 @@
         <v>0</v>
       </c>
       <c r="L263" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M263" s="8" t="b">
         <v>1</v>
@@ -14871,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M264" s="8" t="b">
         <v>1</v>
@@ -14913,7 +14907,7 @@
         <v>30</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M265" s="8" t="b">
         <v>1</v>
@@ -14958,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M266" s="8" t="b">
         <v>1</v>
@@ -15003,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M267" s="8" t="b">
         <v>1</v>
@@ -15048,7 +15042,7 @@
         <v>0</v>
       </c>
       <c r="L268" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M268" s="8" t="b">
         <v>1</v>
@@ -15093,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="L269" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M269" s="8" t="b">
         <v>1</v>
@@ -15135,7 +15129,7 @@
         <v>0</v>
       </c>
       <c r="L270" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M270" s="8" t="b">
         <v>1</v>
@@ -15180,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M271" s="8" t="b">
         <v>1</v>
@@ -15222,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M272" s="8" t="b">
         <v>0</v>
@@ -15264,7 +15258,7 @@
         <v>0</v>
       </c>
       <c r="L273" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M273" s="8" t="b">
         <v>0</v>
@@ -15309,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M274" s="8" t="b">
         <v>0</v>
@@ -15351,7 +15345,7 @@
         <v>0</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M275" s="8" t="b">
         <v>0</v>
@@ -15396,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M276" s="8" t="b">
         <v>0</v>
@@ -15441,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M277" s="8" t="b">
         <v>0</v>
@@ -15483,7 +15477,7 @@
         <v>30</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M278" s="8" t="b">
         <v>0</v>
@@ -15528,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="L279" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M279" s="8" t="b">
         <v>0</v>
@@ -15573,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="L280" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M280" s="8" t="b">
         <v>0</v>
@@ -15618,7 +15612,7 @@
         <v>0</v>
       </c>
       <c r="L281" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M281" s="8" t="b">
         <v>0</v>
@@ -15663,7 +15657,7 @@
         <v>0</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M282" s="8" t="b">
         <v>0</v>
@@ -15705,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M283" s="8" t="b">
         <v>0</v>
@@ -15747,7 +15741,7 @@
         <v>0</v>
       </c>
       <c r="L284" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M284" s="8" t="b">
         <v>0</v>
@@ -15789,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="L285" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M285" s="8" t="b">
         <v>0</v>
@@ -15834,7 +15828,7 @@
         <v>0</v>
       </c>
       <c r="L286" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M286" s="8" t="b">
         <v>0</v>
@@ -15879,7 +15873,7 @@
         <v>0</v>
       </c>
       <c r="L287" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M287" s="8" t="b">
         <v>0</v>
@@ -15921,7 +15915,7 @@
         <v>0</v>
       </c>
       <c r="L288" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M288" s="8" t="b">
         <v>0</v>
@@ -15966,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="L289" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M289" s="8" t="b">
         <v>0</v>
@@ -16011,7 +16005,7 @@
         <v>0</v>
       </c>
       <c r="L290" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M290" s="8" t="b">
         <v>0</v>
@@ -16056,7 +16050,7 @@
         <v>0</v>
       </c>
       <c r="L291" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M291" s="8" t="b">
         <v>0</v>
@@ -16101,7 +16095,7 @@
         <v>0</v>
       </c>
       <c r="L292" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M292" s="8" t="b">
         <v>0</v>
@@ -16146,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="L293" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M293" s="8" t="b">
         <v>0</v>
@@ -16191,7 +16185,7 @@
         <v>0</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M294" s="8" t="b">
         <v>0</v>
@@ -16233,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="L295" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M295" s="8" t="b">
         <v>0</v>
@@ -16278,7 +16272,7 @@
         <v>0</v>
       </c>
       <c r="L296" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M296" s="8" t="b">
         <v>0</v>
@@ -16323,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="L297" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M297" s="8" t="b">
         <v>0</v>
@@ -16365,7 +16359,7 @@
         <v>0</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M298" s="8" t="b">
         <v>0</v>
@@ -16410,7 +16404,7 @@
         <v>0</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M299" s="8" t="b">
         <v>0</v>
@@ -16455,7 +16449,7 @@
         <v>0</v>
       </c>
       <c r="L300" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M300" s="8" t="b">
         <v>0</v>
@@ -16497,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="L301" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M301" s="8" t="b">
         <v>0</v>
@@ -16539,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M302" s="8" t="b">
         <v>1</v>
@@ -16584,7 +16578,7 @@
         <v>0</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M303" s="8" t="b">
         <v>1</v>
@@ -16626,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M304" s="8" t="b">
         <v>1</v>
@@ -16668,7 +16662,7 @@
         <v>0</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M305" s="8" t="b">
         <v>0</v>
@@ -16710,7 +16704,7 @@
         <v>0</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M306" s="8" t="b">
         <v>0</v>
@@ -16752,7 +16746,7 @@
         <v>0</v>
       </c>
       <c r="L307" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M307" s="8" t="b">
         <v>0</v>
@@ -16797,7 +16791,7 @@
         <v>0</v>
       </c>
       <c r="L308" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M308" s="8" t="b">
         <v>0</v>
@@ -16842,7 +16836,7 @@
         <v>0</v>
       </c>
       <c r="L309" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M309" s="8" t="b">
         <v>0</v>
@@ -16887,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M310" s="8" t="b">
         <v>0</v>
@@ -16932,7 +16926,7 @@
         <v>0</v>
       </c>
       <c r="L311" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M311" s="8" t="b">
         <v>0</v>
@@ -16977,7 +16971,7 @@
         <v>0</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M312" s="8" t="b">
         <v>0</v>
@@ -17022,7 +17016,7 @@
         <v>0</v>
       </c>
       <c r="L313" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M313" s="8" t="b">
         <v>0</v>
@@ -17064,7 +17058,7 @@
         <v>0</v>
       </c>
       <c r="L314" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M314" s="8" t="b">
         <v>0</v>
@@ -17109,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="L315" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M315" s="8" t="b">
         <v>0</v>
@@ -17154,7 +17148,7 @@
         <v>0</v>
       </c>
       <c r="L316" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M316" s="8" t="b">
         <v>0</v>
@@ -17196,7 +17190,7 @@
         <v>0</v>
       </c>
       <c r="L317" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M317" s="8" t="b">
         <v>0</v>
@@ -17238,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="L318" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M318" s="8" t="b">
         <v>1</v>
@@ -17283,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="L319" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M319" s="8" t="b">
         <v>1</v>
@@ -17356,7 +17350,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18503,13 +18497,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
-  <dimension ref="A1:G297"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18565,7 +18559,7 @@
         <v>251</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -18589,7 +18583,7 @@
         <v>254</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -18613,7 +18607,7 @@
         <v>255</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -18637,7 +18631,7 @@
         <v>258</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
@@ -18661,7 +18655,7 @@
         <v>260</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G6" s="3">
         <v>6</v>
@@ -18685,7 +18679,7 @@
         <v>262</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G7" s="3">
         <v>7</v>
@@ -18709,7 +18703,7 @@
         <v>263</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G8" s="3">
         <v>8</v>
@@ -18730,10 +18724,10 @@
         <v>257</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G9" s="3">
         <v>9</v>
@@ -18757,7 +18751,7 @@
         <v>264</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G10" s="3">
         <v>10</v>
@@ -18781,7 +18775,7 @@
         <v>265</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G11" s="3">
         <v>11</v>
@@ -18802,10 +18796,10 @@
         <v>257</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G12" s="3">
         <v>12</v>
@@ -18829,7 +18823,7 @@
         <v>260</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G13" s="3">
         <v>13</v>
@@ -18853,7 +18847,7 @@
         <v>262</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G14" s="3">
         <v>14</v>
@@ -18877,7 +18871,7 @@
         <v>266</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G15" s="3">
         <v>15</v>
@@ -18898,10 +18892,10 @@
         <v>257</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G16" s="3">
         <v>16</v>
@@ -18925,7 +18919,7 @@
         <v>260</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G17" s="3">
         <v>17</v>
@@ -18949,7 +18943,7 @@
         <v>262</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G18" s="3">
         <v>18</v>
@@ -18973,7 +18967,7 @@
         <v>267</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G19" s="3">
         <v>19</v>
@@ -18997,7 +18991,7 @@
         <v>268</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G20" s="3">
         <v>20</v>
@@ -19021,7 +19015,7 @@
         <v>269</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G21" s="3">
         <v>21</v>
@@ -19045,7 +19039,7 @@
         <v>271</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G22" s="3">
         <v>22</v>
@@ -19069,7 +19063,7 @@
         <v>273</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G23" s="3">
         <v>23</v>
@@ -19093,7 +19087,7 @@
         <v>275</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G24" s="3">
         <v>24</v>
@@ -19117,7 +19111,7 @@
         <v>277</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G25" s="3">
         <v>25</v>
@@ -19141,7 +19135,7 @@
         <v>268</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G26" s="3">
         <v>26</v>
@@ -19165,7 +19159,7 @@
         <v>269</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G27" s="3">
         <v>27</v>
@@ -19189,7 +19183,7 @@
         <v>278</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G28" s="3">
         <v>28</v>
@@ -19213,7 +19207,7 @@
         <v>273</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G29" s="3">
         <v>29</v>
@@ -19237,7 +19231,7 @@
         <v>268</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G30" s="3">
         <v>30</v>
@@ -19261,7 +19255,7 @@
         <v>269</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G31" s="3">
         <v>31</v>
@@ -19285,7 +19279,7 @@
         <v>271</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G32" s="3">
         <v>32</v>
@@ -19309,7 +19303,7 @@
         <v>273</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G33" s="3">
         <v>33</v>
@@ -19333,7 +19327,7 @@
         <v>279</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G34" s="3">
         <v>34</v>
@@ -19357,7 +19351,7 @@
         <v>280</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G35" s="3">
         <v>35</v>
@@ -19381,7 +19375,7 @@
         <v>281</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G36" s="3">
         <v>36</v>
@@ -19405,7 +19399,7 @@
         <v>282</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G37" s="3">
         <v>37</v>
@@ -19429,7 +19423,7 @@
         <v>277</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G38" s="3">
         <v>38</v>
@@ -19453,7 +19447,7 @@
         <v>268</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G39" s="3">
         <v>39</v>
@@ -19477,7 +19471,7 @@
         <v>269</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G40" s="3">
         <v>40</v>
@@ -19501,7 +19495,7 @@
         <v>278</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G41" s="3">
         <v>41</v>
@@ -19525,7 +19519,7 @@
         <v>273</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G42" s="3">
         <v>42</v>
@@ -19549,7 +19543,7 @@
         <v>268</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G43" s="3">
         <v>43</v>
@@ -19573,7 +19567,7 @@
         <v>269</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G44" s="3">
         <v>44</v>
@@ -19597,7 +19591,7 @@
         <v>271</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G45" s="3">
         <v>45</v>
@@ -19621,7 +19615,7 @@
         <v>273</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G46" s="3">
         <v>46</v>
@@ -19645,7 +19639,7 @@
         <v>277</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G47" s="3">
         <v>47</v>
@@ -19669,7 +19663,7 @@
         <v>268</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G48" s="3">
         <v>48</v>
@@ -19693,7 +19687,7 @@
         <v>269</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G49" s="3">
         <v>49</v>
@@ -19717,7 +19711,7 @@
         <v>278</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G50" s="3">
         <v>50</v>
@@ -19741,7 +19735,7 @@
         <v>273</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G51" s="3">
         <v>51</v>
@@ -19765,7 +19759,7 @@
         <v>268</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G52" s="3">
         <v>52</v>
@@ -19789,7 +19783,7 @@
         <v>269</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G53" s="3">
         <v>53</v>
@@ -19813,7 +19807,7 @@
         <v>271</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G54" s="3">
         <v>54</v>
@@ -19837,7 +19831,7 @@
         <v>273</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G55" s="3">
         <v>55</v>
@@ -19861,7 +19855,7 @@
         <v>284</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="G56" s="3">
         <v>56</v>
@@ -19869,7 +19863,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" s="8">
         <v>22</v>
@@ -19879,69 +19873,69 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="G57" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58" s="6" t="str">
         <f>IF((B58=""),"",VLOOKUP(B58,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
+        <v>Project moves to Process Planning</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>250</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G58" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C59" s="6" t="str">
         <f>IF((B59=""),"",VLOOKUP(B59,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Project moves to Process Planning</v>
+        <v>Project is Referred to Minister for Termination</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="G59" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60" s="8">
         <v>24</v>
@@ -19951,21 +19945,21 @@
         <v>Project is Referred to Minister for Termination</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="G60" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61" s="8">
         <v>24</v>
@@ -19981,15 +19975,15 @@
         <v>288</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G61" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62" s="8">
         <v>24</v>
@@ -19999,21 +19993,21 @@
         <v>Project is Referred to Minister for Termination</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>289</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G62" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63" s="8">
         <v>24</v>
@@ -20023,21 +20017,21 @@
         <v>Project is Referred to Minister for Termination</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>290</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="G63" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64" s="8">
         <v>24</v>
@@ -20053,39 +20047,39 @@
         <v>291</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G64" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B65" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C65" s="6" t="str">
         <f>IF((B65=""),"",VLOOKUP(B65,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Project is Referred to Minister for Termination</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>292</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>268</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G65" s="3">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" s="8">
         <v>26</v>
@@ -20094,22 +20088,22 @@
         <f>IF((B66=""),"",VLOOKUP(B66,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D66" s="48" t="s">
-        <v>257</v>
+      <c r="D66" t="s">
+        <v>259</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G66" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" s="8">
         <v>26</v>
@@ -20118,22 +20112,22 @@
         <f>IF((B67=""),"",VLOOKUP(B67,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D67" t="s">
-        <v>259</v>
+      <c r="D67" s="48" t="s">
+        <v>270</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="G67" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" s="8">
         <v>26</v>
@@ -20143,45 +20137,45 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G68" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C69" s="6" t="str">
         <f>IF((B69=""),"",VLOOKUP(B69,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="G69" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" s="8">
         <v>27</v>
@@ -20190,22 +20184,22 @@
         <f>IF((B70=""),"",VLOOKUP(B70,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D70" s="48" t="s">
-        <v>257</v>
+      <c r="D70" t="s">
+        <v>259</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="G70" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" s="8">
         <v>27</v>
@@ -20214,22 +20208,22 @@
         <f>IF((B71=""),"",VLOOKUP(B71,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D71" t="s">
-        <v>259</v>
+      <c r="D71" s="48" t="s">
+        <v>270</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G71" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" s="8">
         <v>27</v>
@@ -20239,45 +20233,45 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D72" s="48" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G72" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73" s="6" t="str">
         <f>IF((B73=""),"",VLOOKUP(B73,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>Project is Terminated</v>
       </c>
       <c r="D73" s="48" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E73" s="48" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="G73" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="8">
         <v>28</v>
@@ -20286,22 +20280,22 @@
         <f>IF((B74=""),"",VLOOKUP(B74,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Project is Terminated</v>
       </c>
-      <c r="D74" s="48" t="s">
-        <v>257</v>
+      <c r="D74" t="s">
+        <v>259</v>
       </c>
       <c r="E74" s="48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="G74" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="8">
         <v>28</v>
@@ -20310,22 +20304,22 @@
         <f>IF((B75=""),"",VLOOKUP(B75,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Project is Terminated</v>
       </c>
-      <c r="D75" t="s">
-        <v>259</v>
+      <c r="D75" s="48" t="s">
+        <v>270</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G75" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" s="8">
         <v>28</v>
@@ -20335,45 +20329,45 @@
         <v>Project is Terminated</v>
       </c>
       <c r="D76" s="48" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G76" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C77" s="6" t="str">
         <f>IF((B77=""),"",VLOOKUP(B77,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Project is Terminated</v>
-      </c>
-      <c r="D77" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E77" s="48" t="s">
-        <v>273</v>
+        <v>Refer the Project to the CEAO for Further Decision</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="G77" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" s="8">
         <v>29</v>
@@ -20383,45 +20377,45 @@
         <v>Refer the Project to the CEAO for Further Decision</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G78" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C79" s="6" t="str">
         <f>IF((B79=""),"",VLOOKUP(B79,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Refer the Project to the CEAO for Further Decision</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>295</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D79" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="E79" s="48" t="s">
+        <v>268</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G79" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="8">
         <v>30</v>
@@ -20430,22 +20424,22 @@
         <f>IF((B80=""),"",VLOOKUP(B80,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D80" s="48" t="s">
-        <v>257</v>
+      <c r="D80" t="s">
+        <v>259</v>
       </c>
       <c r="E80" s="48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="G80" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" s="8">
         <v>30</v>
@@ -20454,22 +20448,22 @@
         <f>IF((B81=""),"",VLOOKUP(B81,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D81" t="s">
-        <v>259</v>
+      <c r="D81" s="48" t="s">
+        <v>270</v>
       </c>
       <c r="E81" s="48" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G81" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="8">
         <v>30</v>
@@ -20479,45 +20473,45 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D82" s="48" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E82" s="48" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G82" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C83" s="6" t="str">
         <f>IF((B83=""),"",VLOOKUP(B83,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D83" s="48" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E83" s="48" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="G83" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" s="8">
         <v>31</v>
@@ -20526,22 +20520,22 @@
         <f>IF((B84=""),"",VLOOKUP(B84,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D84" s="48" t="s">
-        <v>257</v>
+      <c r="D84" t="s">
+        <v>259</v>
       </c>
       <c r="E84" s="48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="G84" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="8">
         <v>31</v>
@@ -20550,22 +20544,22 @@
         <f>IF((B85=""),"",VLOOKUP(B85,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D85" t="s">
-        <v>259</v>
+      <c r="D85" s="48" t="s">
+        <v>270</v>
       </c>
       <c r="E85" s="48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G85" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="8">
         <v>31</v>
@@ -20575,45 +20569,45 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D86" s="48" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E86" s="48" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G86" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C87" s="6" t="str">
         <f>IF((B87=""),"",VLOOKUP(B87,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D87" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E87" s="48" t="s">
-        <v>273</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="G87" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88" s="8">
         <v>32</v>
@@ -20623,165 +20617,165 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="G88" s="3">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C89" s="6" t="str">
         <f>IF((B89=""),"",VLOOKUP(B89,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
+        <v>Project moves to Process Planning</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="G89" s="3">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C90" s="6" t="str">
         <f>IF((B90=""),"",VLOOKUP(B90,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
+        <v>Set federalInvolvement to "None"</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="G90" s="3">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C91" s="6" t="str">
         <f>IF((B91=""),"",VLOOKUP(B91,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Project moves to Process Planning</v>
+        <v>Set federalInvolvement to "None"</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="G91" s="3">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C92" s="6" t="str">
         <f>IF((B92=""),"",VLOOKUP(B92,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Set federalInvolvement to "None"</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>235</v>
+        <v>Dispute Resolution is started</v>
+      </c>
+      <c r="D92" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>277</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>369</v>
+        <v>252</v>
       </c>
       <c r="G92" s="3">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C93" s="6" t="str">
         <f>IF((B93=""),"",VLOOKUP(B93,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Set federalInvolvement to "None"</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>235</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D93" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>268</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G93" s="3">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C94" s="6" t="str">
         <f>IF((B94=""),"",VLOOKUP(B94,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
-      </c>
-      <c r="D94" s="48" t="s">
-        <v>276</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D94" t="s">
+        <v>259</v>
       </c>
       <c r="E94" s="48" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="G94" s="3">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95" s="8">
         <v>39</v>
@@ -20791,21 +20785,21 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D95" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E95" s="48" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="G95" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96" s="8">
         <v>39</v>
@@ -20814,70 +20808,70 @@
         <f>IF((B96=""),"",VLOOKUP(B96,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D96" t="s">
-        <v>259</v>
+      <c r="D96" s="48" t="s">
+        <v>272</v>
       </c>
       <c r="E96" s="48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G96" s="3">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C97" s="6" t="str">
         <f>IF((B97=""),"",VLOOKUP(B97,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D97" s="48" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="G97" s="3">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C98" s="6" t="str">
         <f>IF((B98=""),"",VLOOKUP(B98,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D98" s="48" t="s">
-        <v>272</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D98" t="s">
+        <v>259</v>
       </c>
       <c r="E98" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G98" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="8">
         <v>40</v>
@@ -20887,21 +20881,21 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D99" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E99" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="G99" s="3">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100" s="8">
         <v>40</v>
@@ -20910,190 +20904,190 @@
         <f>IF((B100=""),"",VLOOKUP(B100,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D100" t="s">
-        <v>259</v>
+      <c r="D100" s="48" t="s">
+        <v>272</v>
       </c>
       <c r="E100" s="48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G100" s="3">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C101" s="6" t="str">
         <f>IF((B101=""),"",VLOOKUP(B101,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D101" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="E101" s="48" t="s">
-        <v>271</v>
+        <v>End of EAC Assessment: Process Planning PHASE, start of EAC Assessment: DPD Development (Proponent Time) PHASE</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G101" s="3">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C102" s="6" t="str">
         <f>IF((B102=""),"",VLOOKUP(B102,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D102" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E102" s="48" t="s">
-        <v>273</v>
+        <v>"Draft" EAC Application Initial Review is POSITIVE</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="G102" s="3">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C103" s="6" t="str">
         <f>IF((B103=""),"",VLOOKUP(B103,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>End of EAC Assessment: Process Planning PHASE, start of EAC Assessment: DPD Development (Proponent Time) PHASE</v>
+        <v>"Draft" EAC Application Initial Review is NEGATIVE</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="G103" s="3">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C104" s="6" t="str">
         <f>IF((B104=""),"",VLOOKUP(B104,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>"Draft" EAC Application Initial Review is POSITIVE</v>
+        <v>"Draft" EAC Application Initial Review is NEGATIVE</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G104" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C105" s="6" t="str">
         <f>IF((B105=""),"",VLOOKUP(B105,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>"Draft" EAC Application Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>299</v>
+        <v>Dispute Resolution is started</v>
+      </c>
+      <c r="D105" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="E105" s="48" t="s">
+        <v>277</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="G105" s="3">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B106" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C106" s="6" t="str">
         <f>IF((B106=""),"",VLOOKUP(B106,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>"Draft" EAC Application Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>300</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D106" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="E106" s="48" t="s">
+        <v>268</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G106" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C107" s="6" t="str">
         <f>IF((B107=""),"",VLOOKUP(B107,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
-      </c>
-      <c r="D107" s="48" t="s">
-        <v>276</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D107" t="s">
+        <v>259</v>
       </c>
       <c r="E107" s="48" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="G107" s="3">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" s="8">
         <v>45</v>
@@ -21103,21 +21097,21 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D108" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E108" s="48" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="G108" s="3">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B109" s="8">
         <v>45</v>
@@ -21126,70 +21120,70 @@
         <f>IF((B109=""),"",VLOOKUP(B109,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D109" t="s">
-        <v>259</v>
+      <c r="D109" s="48" t="s">
+        <v>272</v>
       </c>
       <c r="E109" s="48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G109" s="3">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B110" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C110" s="6" t="str">
         <f>IF((B110=""),"",VLOOKUP(B110,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D110" s="48" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E110" s="48" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="G110" s="3">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C111" s="6" t="str">
         <f>IF((B111=""),"",VLOOKUP(B111,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D111" s="48" t="s">
-        <v>272</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D111" t="s">
+        <v>259</v>
       </c>
       <c r="E111" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G111" s="3">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B112" s="8">
         <v>46</v>
@@ -21199,21 +21193,21 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D112" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E112" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="G112" s="3">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B113" s="8">
         <v>46</v>
@@ -21222,94 +21216,94 @@
         <f>IF((B113=""),"",VLOOKUP(B113,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D113" t="s">
-        <v>259</v>
+      <c r="D113" s="48" t="s">
+        <v>272</v>
       </c>
       <c r="E113" s="48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G113" s="3">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B114" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C114" s="6" t="str">
         <f>IF((B114=""),"",VLOOKUP(B114,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>Dispute Resolution is started</v>
       </c>
       <c r="D114" s="48" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E114" s="48" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="G114" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B115" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C115" s="6" t="str">
         <f>IF((B115=""),"",VLOOKUP(B115,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D115" s="48" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E115" s="48" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="G115" s="3">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B116" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C116" s="6" t="str">
         <f>IF((B116=""),"",VLOOKUP(B116,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
-      </c>
-      <c r="D116" s="48" t="s">
-        <v>276</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D116" t="s">
+        <v>259</v>
       </c>
       <c r="E116" s="48" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="G116" s="3">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B117" s="8">
         <v>48</v>
@@ -21319,21 +21313,21 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D117" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E117" s="48" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="G117" s="3">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B118" s="8">
         <v>48</v>
@@ -21342,70 +21336,70 @@
         <f>IF((B118=""),"",VLOOKUP(B118,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D118" t="s">
-        <v>259</v>
+      <c r="D118" s="48" t="s">
+        <v>272</v>
       </c>
       <c r="E118" s="48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G118" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B119" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C119" s="6" t="str">
         <f>IF((B119=""),"",VLOOKUP(B119,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D119" s="48" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E119" s="48" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="G119" s="3">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B120" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C120" s="6" t="str">
         <f>IF((B120=""),"",VLOOKUP(B120,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D120" s="48" t="s">
-        <v>272</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D120" t="s">
+        <v>259</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G120" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B121" s="8">
         <v>49</v>
@@ -21415,21 +21409,21 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D121" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="G121" s="3">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B122" s="8">
         <v>49</v>
@@ -21438,190 +21432,190 @@
         <f>IF((B122=""),"",VLOOKUP(B122,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D122" t="s">
-        <v>259</v>
+      <c r="D122" s="48" t="s">
+        <v>272</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G122" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B123" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C123" s="6" t="str">
         <f>IF((B123=""),"",VLOOKUP(B123,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D123" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="E123" s="48" t="s">
-        <v>271</v>
+        <v>End of EAC Assessment: Application Review PHASE, start of EAC Assessment: Revised Application Development (Proponent Time) PHASE</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G123" s="3">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B124" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C124" s="6" t="str">
         <f>IF((B124=""),"",VLOOKUP(B124,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D124" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E124" s="48" t="s">
-        <v>273</v>
+        <v>"Draft" Revised EAC Application Initial Review is POSITIVE</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="G124" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B125" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C125" s="6" t="str">
         <f>IF((B125=""),"",VLOOKUP(B125,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>End of EAC Assessment: Application Review PHASE, start of EAC Assessment: Revised Application Development (Proponent Time) PHASE</v>
+        <v>"Draft" Revised EAC Application Initial Review is NEGATIVE</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="G125" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B126" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C126" s="6" t="str">
         <f>IF((B126=""),"",VLOOKUP(B126,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>"Draft" Revised EAC Application Initial Review is POSITIVE</v>
+        <v>"Draft" Revised EAC Application Initial Review is NEGATIVE</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G126" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B127" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C127" s="6" t="str">
         <f>IF((B127=""),"",VLOOKUP(B127,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>"Draft" Revised EAC Application Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>302</v>
+        <v>Dispute Resolution is started</v>
+      </c>
+      <c r="D127" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="E127" s="48" t="s">
+        <v>277</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="G127" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B128" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C128" s="6" t="str">
         <f>IF((B128=""),"",VLOOKUP(B128,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>"Draft" Revised EAC Application Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>303</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D128" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="E128" s="48" t="s">
+        <v>268</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="G128" s="3">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B129" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C129" s="6" t="str">
         <f>IF((B129=""),"",VLOOKUP(B129,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
-      </c>
-      <c r="D129" s="48" t="s">
-        <v>276</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D129" t="s">
+        <v>259</v>
       </c>
       <c r="E129" s="48" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="G129" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B130" s="8">
         <v>54</v>
@@ -21631,21 +21625,21 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D130" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="G130" s="3">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B131" s="8">
         <v>54</v>
@@ -21654,70 +21648,70 @@
         <f>IF((B131=""),"",VLOOKUP(B131,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D131" t="s">
-        <v>259</v>
+      <c r="D131" s="48" t="s">
+        <v>272</v>
       </c>
       <c r="E131" s="48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G131" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B132" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C132" s="6" t="str">
         <f>IF((B132=""),"",VLOOKUP(B132,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D132" s="48" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="G132" s="3">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B133" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C133" s="6" t="str">
         <f>IF((B133=""),"",VLOOKUP(B133,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D133" s="48" t="s">
-        <v>272</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D133" t="s">
+        <v>259</v>
       </c>
       <c r="E133" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G133" s="3">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B134" s="8">
         <v>55</v>
@@ -21727,21 +21721,21 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D134" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E134" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="G134" s="3">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B135" s="8">
         <v>55</v>
@@ -21750,94 +21744,94 @@
         <f>IF((B135=""),"",VLOOKUP(B135,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D135" t="s">
-        <v>259</v>
+      <c r="D135" s="48" t="s">
+        <v>272</v>
       </c>
       <c r="E135" s="48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G135" s="3">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B136" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C136" s="6" t="str">
         <f>IF((B136=""),"",VLOOKUP(B136,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>Dispute Resolution is started</v>
       </c>
       <c r="D136" s="48" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E136" s="48" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="G136" s="3">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B137" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C137" s="6" t="str">
         <f>IF((B137=""),"",VLOOKUP(B137,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D137" s="48" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E137" s="48" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="G137" s="3">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B138" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C138" s="6" t="str">
         <f>IF((B138=""),"",VLOOKUP(B138,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
-      </c>
-      <c r="D138" s="48" t="s">
-        <v>276</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D138" t="s">
+        <v>259</v>
       </c>
       <c r="E138" s="48" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="G138" s="3">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B139" s="8">
         <v>57</v>
@@ -21847,21 +21841,21 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D139" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E139" s="48" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="G139" s="3">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B140" s="8">
         <v>57</v>
@@ -21870,70 +21864,70 @@
         <f>IF((B140=""),"",VLOOKUP(B140,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D140" t="s">
-        <v>259</v>
+      <c r="D140" s="48" t="s">
+        <v>272</v>
       </c>
       <c r="E140" s="48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G140" s="3">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B141" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C141" s="6" t="str">
         <f>IF((B141=""),"",VLOOKUP(B141,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D141" s="48" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E141" s="48" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="G141" s="3">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B142" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C142" s="6" t="str">
         <f>IF((B142=""),"",VLOOKUP(B142,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D142" s="48" t="s">
-        <v>272</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D142" t="s">
+        <v>259</v>
       </c>
       <c r="E142" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G142" s="3">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B143" s="8">
         <v>58</v>
@@ -21943,21 +21937,21 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D143" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E143" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="G143" s="3">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B144" s="8">
         <v>58</v>
@@ -21966,94 +21960,94 @@
         <f>IF((B144=""),"",VLOOKUP(B144,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D144" t="s">
-        <v>259</v>
+      <c r="D144" s="48" t="s">
+        <v>272</v>
       </c>
       <c r="E144" s="48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G144" s="3">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B145" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C145" s="6" t="str">
         <f>IF((B145=""),"",VLOOKUP(B145,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D145" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="E145" s="48" t="s">
-        <v>271</v>
+        <v>End of EAC Assessment: Effects Assessment &amp; Recommendation PHASE, start of EAC Assessment: Decision PHASE</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="G145" s="3">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B146" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C146" s="6" t="str">
         <f>IF((B146=""),"",VLOOKUP(B146,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D146" s="48" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E146" s="48" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="G146" s="3">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B147" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C147" s="6" t="str">
         <f>IF((B147=""),"",VLOOKUP(B147,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>End of EAC Assessment: Effects Assessment &amp; Recommendation PHASE, start of EAC Assessment: Decision PHASE</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>304</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D147" t="s">
+        <v>259</v>
+      </c>
+      <c r="E147" s="48" t="s">
+        <v>269</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="G147" s="3">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B148" s="8">
         <v>60</v>
@@ -22063,21 +22057,21 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D148" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E148" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="G148" s="3">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B149" s="8">
         <v>60</v>
@@ -22086,162 +22080,126 @@
         <f>IF((B149=""),"",VLOOKUP(B149,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D149" t="s">
-        <v>259</v>
+      <c r="D149" s="48" t="s">
+        <v>272</v>
       </c>
       <c r="E149" s="48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G149" s="3">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B150" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C150" s="6" t="str">
         <f>IF((B150=""),"",VLOOKUP(B150,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D150" s="48" t="s">
+        <v>Environmental Assessment Certificate GRANTED</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E150" s="48" t="s">
-        <v>271</v>
+      <c r="E150" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G150" s="3">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B151" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C151" s="6" t="str">
         <f>IF((B151=""),"",VLOOKUP(B151,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D151" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E151" s="48" t="s">
-        <v>273</v>
+        <v>Environmental Assessment Certificate GRANTED</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="G151" s="3">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B152" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C152" s="6" t="str">
         <f>IF((B152=""),"",VLOOKUP(B152,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Environmental Assessment Certificate GRANTED</v>
-      </c>
-      <c r="D152" s="2" t="s">
+        <v>Environmental Assessment Certificate REFUSED</v>
+      </c>
+      <c r="D152" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>307</v>
+      <c r="E152" s="48" t="s">
+        <v>306</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G152" s="3">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B153" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C153" s="6" t="str">
         <f>IF((B153=""),"",VLOOKUP(B153,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Environmental Assessment Certificate GRANTED</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>306</v>
+        <v>Environmental Assessment Certificate REFUSED</v>
+      </c>
+      <c r="D153" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="E153" s="48" t="s">
+        <v>273</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="G153" s="3">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
-        <v>157</v>
-      </c>
-      <c r="B154" s="8">
-        <v>62</v>
-      </c>
-      <c r="C154" s="6" t="str">
-        <f>IF((B154=""),"",VLOOKUP(B154,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Environmental Assessment Certificate REFUSED</v>
-      </c>
-      <c r="D154" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="E154" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G154" s="3">
-        <v>157</v>
-      </c>
+      <c r="A154" s="3"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="6"/>
+      <c r="G154" s="3"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
-        <v>158</v>
-      </c>
-      <c r="B155" s="8">
-        <v>62</v>
-      </c>
-      <c r="C155" s="6" t="str">
-        <f>IF((B155=""),"",VLOOKUP(B155,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Environmental Assessment Certificate REFUSED</v>
-      </c>
-      <c r="D155" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E155" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G155" s="3">
-        <v>158</v>
-      </c>
+      <c r="A155" s="3"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="6"/>
+      <c r="G155" s="3"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
@@ -23082,18 +23040,6 @@
       <c r="B295" s="8"/>
       <c r="C295" s="6"/>
       <c r="G295" s="3"/>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A296" s="3"/>
-      <c r="B296" s="8"/>
-      <c r="C296" s="6"/>
-      <c r="G296" s="3"/>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A297" s="3"/>
-      <c r="B297" s="8"/>
-      <c r="C297" s="6"/>
-      <c r="G297" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23105,7 +23051,7 @@
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$62</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B297</xm:sqref>
+          <xm:sqref>B2:B295</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -23156,7 +23102,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -23165,11 +23111,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -23181,11 +23127,11 @@
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -23230,7 +23176,7 @@
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -23251,7 +23197,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>46</v>
@@ -23262,10 +23208,10 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -23283,7 +23229,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>48</v>
@@ -23294,10 +23240,10 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>45</v>
@@ -23309,7 +23255,7 @@
         <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>74</v>
@@ -23329,12 +23275,12 @@
         <v>51</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>45</v>
@@ -23346,12 +23292,12 @@
         <v>81</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>45</v>
@@ -23363,12 +23309,12 @@
         <v>107</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>45</v>
@@ -23380,12 +23326,12 @@
         <v>115</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>45</v>
@@ -23394,12 +23340,12 @@
         <v>56</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>45</v>
@@ -23411,7 +23357,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>45</v>
@@ -23423,7 +23369,7 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>107</v>
@@ -23435,7 +23381,7 @@
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>107</v>
@@ -23447,7 +23393,7 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>115</v>
@@ -23497,7 +23443,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
@@ -23521,7 +23467,7 @@
         <v>32</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
@@ -23601,7 +23547,7 @@
         <v>54</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -23633,7 +23579,7 @@
         <v>51</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
@@ -23641,7 +23587,7 @@
         <v>51</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
@@ -23766,7 +23712,7 @@
         <v>216</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>252</v>
@@ -23790,7 +23736,7 @@
         <v>216</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>252</v>
@@ -23814,7 +23760,7 @@
         <v>216</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>252</v>

--- a/epictrack-api/src/api/templates/event_templates/assessment/001_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/001_EAC_Assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20765A8D-D6C0-4617-B392-B509ADE561E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38999C06-5EB5-41CC-AE4B-CB4C7D451EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="382">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -984,12 +984,6 @@
     <t>AddEvent</t>
   </si>
   <si>
-    <t>Add a copy of "Submission of "Draft" Initial Project Description &amp; Engagement Plan" to thisPhase at thisEventACTUAL +21</t>
-  </si>
-  <si>
-    <t>Add a copy of ""Draft" Initial Project Description &amp; Engagement Plan Initial Review" to thisPhase at thisEventACTUAL +28</t>
-  </si>
-  <si>
     <t>No Action Needed</t>
   </si>
   <si>
@@ -1065,12 +1059,6 @@
     <t>Set ANTICIPATED of "Readiness Decision | Detailed Project Description Received" to thisEventACTUAL +1</t>
   </si>
   <si>
-    <t>Add a copy of "Submission of Detailed Project Description" to thisPhase at thisEventACTUAL +21</t>
-  </si>
-  <si>
-    <t>Add a copy of ""Draft" Detailed Project Description Initial Review" to thisPhase at thisEventACTUAL +28</t>
-  </si>
-  <si>
     <t>AddPhase</t>
   </si>
   <si>
@@ -1083,12 +1071,6 @@
     <t>Set "Termination Decision" PHASE to ACTIVE (show it)</t>
   </si>
   <si>
-    <t>Set "Readiness Decision | Termination Package Referred to Minister" EVENT to ACTIVE (show it)</t>
-  </si>
-  <si>
-    <t>Set "Readiness Decision | Last Day of EAC Assessment Readiness Decision (Date Capture Milestone)" EVENT to ACTIVE (show it)</t>
-  </si>
-  <si>
     <t>Set "Readiness Decision | Last Day of EAC Assessment Readiness Decision (Date Capture Milestone)" to PHASE END EVENT</t>
   </si>
   <si>
@@ -1116,21 +1098,9 @@
     <t>Set ANTICIPATED of "Application Review | EAC Application Received" to thisEventACTUAL +1</t>
   </si>
   <si>
-    <t>Add a copy of "Submission of EAC Application" to thisPhase at thisEventACTUAL +50</t>
-  </si>
-  <si>
-    <t>Add a copy of ""Draft" EAC Application Initial Review" to thisPhase at thisEventACTUAL +60</t>
-  </si>
-  <si>
     <t>Set ANTICIPATED of "Effects Assessment &amp; Recommendation | Revised EAC Application Accepted" to thisEventACTUAL +1</t>
   </si>
   <si>
-    <t>Add a copy of "Submission of Revised EAC Application" to thisPhase at thisEventACTUAL +50</t>
-  </si>
-  <si>
-    <t>Add a copy of ""Draft" Revised EAC Application Initial Review" to thisPhase at thisEventACTUAL +60</t>
-  </si>
-  <si>
     <t>Set "Decision | Referral Package Received by Ministers" ACTUAL to thisEventActual +1</t>
   </si>
   <si>
@@ -1245,15 +1215,9 @@
     <t>{"phase_name":"Early Engagement","work_type_id": 6, "ea_act_id": 3, "event_name": "Approval of IPD/EP Submission", "start_at": 1 }</t>
   </si>
   <si>
-    <t>{"phase_name":"EAC Assessment Intake","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Initial Project Description &amp; Engagement Plan", "start_at": 21 }</t>
-  </si>
-  <si>
     <t>{"is_active": false}</t>
   </si>
   <si>
-    <t>{"phase_name":"EAC Assessment Intake","work_type_id": 6, "ea_act_id": 3, "event_name": "\"Draft\" Initial Project Description &amp; Engagement Plan Initial Review", "start_at": 28 }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Early Engagement","work_type_id": 6, "ea_act_id": 3, "event_name": "Project Transitioning FROM the EA Act (2002)"}</t>
   </si>
   <si>
@@ -1284,12 +1248,6 @@
     <t>{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Detailed Project Description Received", "start_at": 1 }</t>
   </si>
   <si>
-    <t>{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "\"Draft\" Detailed Project Description Initial Review", "start_at": 28 }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of Detailed Project Description", "start_at": 21 }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Process Planning","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of Process Planning (Date Capture Milestone)", "start_at": 1 }</t>
   </si>
   <si>
@@ -1302,21 +1260,9 @@
     <t>{"phase_name":"Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Referral Package Received by Ministers", "start_at": 1 }</t>
   </si>
   <si>
-    <t>{"phase_name":"Revised Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "\"Draft\" Revised EAC Application Initial Review", "start_at": 60 }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Revised Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of Revised EAC Application", "start_at": 50 }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Effects Assessment &amp; Recommendation","work_type_id": 6, "ea_act_id": 3, "event_name": "Revised EAC Application Accepted", "start_at": 1 }</t>
   </si>
   <si>
-    <t>{"phase_name":"Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of EAC Application", "start_at": 50 }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "\"Draft\" EAC Application Initial Review", "start_at": 60 }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Application Review","work_type_id": 6, "ea_act_id": 3, "event_name": "EAC Application Received", "start_at": 1 }</t>
   </si>
   <si>
@@ -1377,12 +1323,6 @@
     <t>{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Last Day of EAC Assessment Readiness Decision (Date Capture Milestone)" }</t>
   </si>
   <si>
-    <t>{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Last Day of EAC Assessment Readiness Decision (Date Capture Milestone)", "start_at": 1 }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Termination Package Referred to Minister", "start_at": 1 }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Revised Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Detailed Project Description Received", "start_at": 1 }</t>
   </si>
   <si>
@@ -1396,6 +1336,36 @@
   </si>
   <si>
     <t>{"phase_name":"Revised DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of Detailed Project Description Development", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"EAC Assessment Intake","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Initial Project Description &amp; Engagement Plan", "start_at": 21 },{"phase_name":"EAC Assessment Intake","work_type_id": 6, "ea_act_id": 3, "event_name": "\"Draft\" Initial Project Description &amp; Engagement Plan Initial Review", "start_at": 7 }]</t>
+  </si>
+  <si>
+    <t>Add a copy of "Submission of "Draft" Initial Project Description &amp; Engagement Plan, "Draft" Initial Project Description &amp; Engagement Plan Initial Review" to thisPhase at thisEventACTUAL +21</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of Detailed Project Description", "start_at": 21 },{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "\"Draft\" Detailed Project Description Initial Review", "start_at": 28 }]</t>
+  </si>
+  <si>
+    <t>Add a copy of "Submission of Detailed Project Description,"Draft" Detailed Project Description Initial Review" to thisPhase at thisEventACTUAL +21</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Termination Package Referred to Minister", "start_at": 1 },{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Last Day of EAC Assessment Readiness Decision (Date Capture Milestone)", "start_at": 0 }]</t>
+  </si>
+  <si>
+    <t>Set "Readiness Decision | Termination Package Referred to Minister, Last Day of EAC Assessment Readiness Decision (Date Capture Milestone)" EVENT to ACTIVE (show it)</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of EAC Application", "start_at": 50 },{"phase_name":"Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "\"Draft\" EAC Application Initial Review", "start_at": 10 }]</t>
+  </si>
+  <si>
+    <t>Add a copy of "Submission of EAC Application,"Draft" EAC Application Initial Review" to thisPhase at thisEventACTUAL +50</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Revised Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of Revised EAC Application", "start_at": 50 },{"phase_name":"Revised Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "\"Draft\" Revised EAC Application Initial Review", "start_at": 10 }]</t>
+  </si>
+  <si>
+    <t>Add a copy of "Submission of Revised EAC Application,"Draft" Revised EAC Application Initial Review" to thisPhase at thisEventACTUAL +50</t>
   </si>
 </sst>
 </file>
@@ -2184,7 +2154,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
@@ -2198,7 +2168,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>19</v>
@@ -2213,7 +2183,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -2227,7 +2197,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>19</v>
@@ -2242,7 +2212,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -2256,7 +2226,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>19</v>
@@ -2271,7 +2241,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -2285,7 +2255,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>19</v>
@@ -2300,7 +2270,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -2314,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>19</v>
@@ -2329,7 +2299,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="I6" s="3">
         <v>5</v>
@@ -2343,7 +2313,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>19</v>
@@ -2358,7 +2328,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="I7" s="3">
         <v>6</v>
@@ -2372,7 +2342,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>19</v>
@@ -2387,7 +2357,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="I8" s="3">
         <v>7</v>
@@ -2401,7 +2371,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>19</v>
@@ -2416,7 +2386,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="I9" s="3">
         <v>8</v>
@@ -2430,7 +2400,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>19</v>
@@ -2445,7 +2415,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="I10" s="3">
         <v>9</v>
@@ -2459,7 +2429,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>19</v>
@@ -2474,7 +2444,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="I11" s="3">
         <v>10</v>
@@ -2488,7 +2458,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>19</v>
@@ -2503,7 +2473,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="I12" s="3">
         <v>11</v>
@@ -2517,7 +2487,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>19</v>
@@ -2532,7 +2502,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="I13" s="3">
         <v>12</v>
@@ -3352,10 +3322,10 @@
   <dimension ref="A1:N319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3408,7 +3378,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>42</v>
@@ -3450,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M2" s="8" t="b">
         <v>1</v>
@@ -3492,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M3" s="8" t="b">
         <v>1</v>
@@ -3534,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M4" s="8" t="b">
         <v>1</v>
@@ -3579,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M5" s="8" t="b">
         <v>1</v>
@@ -3621,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M6" s="8" t="b">
         <v>1</v>
@@ -3663,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M7" s="8" t="b">
         <v>1</v>
@@ -3708,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M8" s="8" t="b">
         <v>1</v>
@@ -3750,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M9" s="8" t="b">
         <v>1</v>
@@ -3792,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M10" s="8" t="b">
         <v>0</v>
@@ -3834,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M11" s="8" t="b">
         <v>0</v>
@@ -3879,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M12" s="8" t="b">
         <v>0</v>
@@ -3924,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M13" s="8" t="b">
         <v>0</v>
@@ -3966,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M14" s="8" t="b">
         <v>0</v>
@@ -4008,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M15" s="8" t="b">
         <v>0</v>
@@ -4050,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M16" s="8" t="b">
         <v>1</v>
@@ -4092,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M17" s="8" t="b">
         <v>1</v>
@@ -4137,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M18" s="8" t="b">
         <v>1</v>
@@ -4182,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M19" s="8" t="b">
         <v>1</v>
@@ -4224,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M20" s="8" t="b">
         <v>1</v>
@@ -4266,7 +4236,7 @@
         <v>30</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M21" s="8" t="b">
         <v>1</v>
@@ -4311,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M22" s="8" t="b">
         <v>1</v>
@@ -4356,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M23" s="8" t="b">
         <v>1</v>
@@ -4401,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M24" s="8" t="b">
         <v>1</v>
@@ -4446,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M25" s="8" t="b">
         <v>1</v>
@@ -4488,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M26" s="8" t="b">
         <v>1</v>
@@ -4533,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M27" s="8" t="b">
         <v>1</v>
@@ -4575,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M28" s="8" t="b">
         <v>1</v>
@@ -4620,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M29" s="8" t="b">
         <v>1</v>
@@ -4662,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M30" s="8" t="b">
         <v>1</v>
@@ -4704,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M31" s="8" t="b">
         <v>1</v>
@@ -4749,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M32" s="8" t="b">
         <v>1</v>
@@ -4791,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M33" s="8" t="b">
         <v>0</v>
@@ -4833,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M34" s="8" t="b">
         <v>0</v>
@@ -4878,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M35" s="8" t="b">
         <v>0</v>
@@ -4920,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M36" s="8" t="b">
         <v>0</v>
@@ -4965,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M37" s="8" t="b">
         <v>0</v>
@@ -5010,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M38" s="8" t="b">
         <v>0</v>
@@ -5052,7 +5022,7 @@
         <v>30</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M39" s="8" t="b">
         <v>0</v>
@@ -5097,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M40" s="8" t="b">
         <v>0</v>
@@ -5142,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M41" s="8" t="b">
         <v>0</v>
@@ -5187,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M42" s="8" t="b">
         <v>0</v>
@@ -5232,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M43" s="8" t="b">
         <v>0</v>
@@ -5274,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M44" s="8" t="b">
         <v>0</v>
@@ -5316,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M45" s="8" t="b">
         <v>0</v>
@@ -5358,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M46" s="8" t="b">
         <v>0</v>
@@ -5403,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M47" s="8" t="b">
         <v>0</v>
@@ -5448,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M48" s="8" t="b">
         <v>0</v>
@@ -5490,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M49" s="8" t="b">
         <v>0</v>
@@ -5535,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M50" s="8" t="b">
         <v>0</v>
@@ -5580,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M51" s="8" t="b">
         <v>0</v>
@@ -5625,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M52" s="8" t="b">
         <v>0</v>
@@ -5670,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M53" s="8" t="b">
         <v>0</v>
@@ -5715,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M54" s="8" t="b">
         <v>0</v>
@@ -5760,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M55" s="8" t="b">
         <v>0</v>
@@ -5802,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M56" s="8" t="b">
         <v>0</v>
@@ -5847,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M57" s="8" t="b">
         <v>0</v>
@@ -5892,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M58" s="8" t="b">
         <v>0</v>
@@ -5934,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M59" s="8" t="b">
         <v>0</v>
@@ -5979,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M60" s="8" t="b">
         <v>0</v>
@@ -6024,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M61" s="8" t="b">
         <v>0</v>
@@ -6066,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M62" s="8" t="b">
         <v>0</v>
@@ -6108,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M63" s="8" t="b">
         <v>1</v>
@@ -6153,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M64" s="8" t="b">
         <v>1</v>
@@ -6198,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M65" s="8" t="b">
         <v>1</v>
@@ -6240,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M66" s="8" t="b">
         <v>1</v>
@@ -6282,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M67" s="8" t="b">
         <v>1</v>
@@ -6324,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M68" s="8" t="b">
         <v>1</v>
@@ -6369,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M69" s="8" t="b">
         <v>1</v>
@@ -6411,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M70" s="8" t="b">
         <v>1</v>
@@ -6453,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M71" s="8" t="b">
         <v>0</v>
@@ -6495,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M72" s="8" t="b">
         <v>0</v>
@@ -6540,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M73" s="8" t="b">
         <v>0</v>
@@ -6585,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M74" s="8" t="b">
         <v>0</v>
@@ -6627,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M75" s="8" t="b">
         <v>0</v>
@@ -6672,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M76" s="8" t="b">
         <v>0</v>
@@ -6717,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M77" s="8" t="b">
         <v>0</v>
@@ -6759,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M78" s="8" t="b">
         <v>0</v>
@@ -6804,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M79" s="8" t="b">
         <v>0</v>
@@ -6849,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M80" s="8" t="b">
         <v>0</v>
@@ -6891,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M81" s="8" t="b">
         <v>0</v>
@@ -6933,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M82" s="8" t="b">
         <v>1</v>
@@ -6975,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M83" s="8" t="b">
         <v>1</v>
@@ -7020,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M84" s="8" t="b">
         <v>1</v>
@@ -7065,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M85" s="8" t="b">
         <v>1</v>
@@ -7107,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M86" s="8" t="b">
         <v>1</v>
@@ -7152,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M87" s="8" t="b">
         <v>1</v>
@@ -7194,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M88" s="8" t="b">
         <v>1</v>
@@ -7236,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M89" s="8" t="b">
         <v>1</v>
@@ -7281,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M90" s="8" t="b">
         <v>1</v>
@@ -7323,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M91" s="8" t="b">
         <v>0</v>
@@ -7365,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M92" s="8" t="b">
         <v>0</v>
@@ -7410,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M93" s="8" t="b">
         <v>0</v>
@@ -7455,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M94" s="8" t="b">
         <v>0</v>
@@ -7497,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M95" s="8" t="b">
         <v>0</v>
@@ -7542,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M96" s="8" t="b">
         <v>0</v>
@@ -7587,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M97" s="8" t="b">
         <v>0</v>
@@ -7629,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M98" s="8" t="b">
         <v>0</v>
@@ -7674,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M99" s="8" t="b">
         <v>0</v>
@@ -7719,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M100" s="8" t="b">
         <v>0</v>
@@ -7761,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M101" s="8" t="b">
         <v>0</v>
@@ -7804,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="31" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="M102" s="32" t="b">
         <v>0</v>
@@ -7847,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="36" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="M103" s="37" t="b">
         <v>0</v>
@@ -7889,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M104" s="8" t="b">
         <v>1</v>
@@ -7934,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M105" s="8" t="b">
         <v>1</v>
@@ -7979,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M106" s="8" t="b">
         <v>1</v>
@@ -8021,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M107" s="8" t="b">
         <v>1</v>
@@ -8063,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M108" s="8" t="b">
         <v>0</v>
@@ -8105,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M109" s="8" t="b">
         <v>0</v>
@@ -8150,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M110" s="8" t="b">
         <v>0</v>
@@ -8195,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M111" s="8" t="b">
         <v>0</v>
@@ -8237,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M112" s="8" t="b">
         <v>0</v>
@@ -8282,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M113" s="8" t="b">
         <v>0</v>
@@ -8327,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M114" s="8" t="b">
         <v>0</v>
@@ -8369,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M115" s="8" t="b">
         <v>0</v>
@@ -8411,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M116" s="8" t="b">
         <v>1</v>
@@ -8456,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M117" s="8" t="b">
         <v>1</v>
@@ -8498,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M118" s="8" t="b">
         <v>1</v>
@@ -8540,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M119" s="8" t="b">
         <v>0</v>
@@ -8582,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M120" s="8" t="b">
         <v>0</v>
@@ -8627,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M121" s="8" t="b">
         <v>0</v>
@@ -8672,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M122" s="8" t="b">
         <v>0</v>
@@ -8714,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M123" s="8" t="b">
         <v>0</v>
@@ -8759,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M124" s="8" t="b">
         <v>0</v>
@@ -8804,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M125" s="8" t="b">
         <v>0</v>
@@ -8846,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M126" s="8" t="b">
         <v>0</v>
@@ -8889,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="L127" s="46" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="M127" s="41" t="b">
         <v>0</v>
@@ -8931,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M128" s="8" t="b">
         <v>1</v>
@@ -8976,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M129" s="8" t="b">
         <v>1</v>
@@ -9021,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M130" s="8" t="b">
         <v>1</v>
@@ -9063,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M131" s="8" t="b">
         <v>1</v>
@@ -9105,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M132" s="8" t="b">
         <v>1</v>
@@ -9147,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M133" s="8" t="b">
         <v>1</v>
@@ -9189,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M134" s="8" t="b">
         <v>1</v>
@@ -9231,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M135" s="8" t="b">
         <v>1</v>
@@ -9273,7 +9243,7 @@
         <v>30</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M136" s="8" t="b">
         <v>1</v>
@@ -9318,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M137" s="8" t="b">
         <v>1</v>
@@ -9363,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M138" s="8" t="b">
         <v>1</v>
@@ -9408,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M139" s="8" t="b">
         <v>1</v>
@@ -9453,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M140" s="8" t="b">
         <v>1</v>
@@ -9495,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M141" s="8" t="b">
         <v>1</v>
@@ -9537,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M142" s="8" t="b">
         <v>1</v>
@@ -9582,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M143" s="8" t="b">
         <v>1</v>
@@ -9624,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M144" s="8" t="b">
         <v>0</v>
@@ -9666,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M145" s="8" t="b">
         <v>0</v>
@@ -9708,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M146" s="8" t="b">
         <v>0</v>
@@ -9750,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M147" s="8" t="b">
         <v>0</v>
@@ -9792,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M148" s="8" t="b">
         <v>0</v>
@@ -9837,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M149" s="8" t="b">
         <v>0</v>
@@ -9882,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M150" s="8" t="b">
         <v>0</v>
@@ -9924,7 +9894,7 @@
         <v>30</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M151" s="8" t="b">
         <v>0</v>
@@ -9969,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M152" s="8" t="b">
         <v>0</v>
@@ -10014,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M153" s="8" t="b">
         <v>0</v>
@@ -10059,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M154" s="8" t="b">
         <v>0</v>
@@ -10104,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M155" s="8" t="b">
         <v>0</v>
@@ -10146,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M156" s="8" t="b">
         <v>0</v>
@@ -10188,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M157" s="8" t="b">
         <v>0</v>
@@ -10230,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M158" s="8" t="b">
         <v>0</v>
@@ -10275,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M159" s="8" t="b">
         <v>0</v>
@@ -10320,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M160" s="8" t="b">
         <v>0</v>
@@ -10362,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M161" s="8" t="b">
         <v>0</v>
@@ -10407,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M162" s="8" t="b">
         <v>0</v>
@@ -10452,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M163" s="8" t="b">
         <v>0</v>
@@ -10497,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M164" s="8" t="b">
         <v>0</v>
@@ -10542,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M165" s="8" t="b">
         <v>0</v>
@@ -10587,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M166" s="8" t="b">
         <v>0</v>
@@ -10632,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M167" s="8" t="b">
         <v>0</v>
@@ -10674,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M168" s="8" t="b">
         <v>0</v>
@@ -10719,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M169" s="8" t="b">
         <v>0</v>
@@ -10764,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M170" s="8" t="b">
         <v>0</v>
@@ -10806,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M171" s="8" t="b">
         <v>0</v>
@@ -10851,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M172" s="8" t="b">
         <v>0</v>
@@ -10896,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M173" s="8" t="b">
         <v>0</v>
@@ -10938,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M174" s="8" t="b">
         <v>0</v>
@@ -10980,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M175" s="8" t="b">
         <v>1</v>
@@ -11025,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M176" s="8" t="b">
         <v>1</v>
@@ -11070,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M177" s="8" t="b">
         <v>1</v>
@@ -11112,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M178" s="8" t="b">
         <v>1</v>
@@ -11154,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M179" s="8" t="b">
         <v>1</v>
@@ -11196,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M180" s="8" t="b">
         <v>1</v>
@@ -11241,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M181" s="8" t="b">
         <v>1</v>
@@ -11283,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M182" s="8" t="b">
         <v>1</v>
@@ -11325,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M183" s="8" t="b">
         <v>0</v>
@@ -11367,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M184" s="8" t="b">
         <v>0</v>
@@ -11412,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M185" s="8" t="b">
         <v>0</v>
@@ -11454,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M186" s="8" t="b">
         <v>0</v>
@@ -11499,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M187" s="8" t="b">
         <v>0</v>
@@ -11544,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M188" s="8" t="b">
         <v>0</v>
@@ -11586,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M189" s="8" t="b">
         <v>0</v>
@@ -11631,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M190" s="8" t="b">
         <v>0</v>
@@ -11676,7 +11646,7 @@
         <v>0</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M191" s="8" t="b">
         <v>0</v>
@@ -11718,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M192" s="8" t="b">
         <v>0</v>
@@ -11763,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M193" s="8" t="b">
         <v>0</v>
@@ -11808,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M194" s="8" t="b">
         <v>0</v>
@@ -11850,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M195" s="8" t="b">
         <v>0</v>
@@ -11892,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M196" s="8" t="b">
         <v>1</v>
@@ -11934,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M197" s="8" t="b">
         <v>1</v>
@@ -11979,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M198" s="8" t="b">
         <v>1</v>
@@ -12024,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M199" s="8" t="b">
         <v>1</v>
@@ -12066,7 +12036,7 @@
         <v>30</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M200" s="8" t="b">
         <v>1</v>
@@ -12111,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M201" s="8" t="b">
         <v>1</v>
@@ -12156,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M202" s="8" t="b">
         <v>1</v>
@@ -12201,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M203" s="8" t="b">
         <v>1</v>
@@ -12246,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M204" s="8" t="b">
         <v>1</v>
@@ -12288,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M205" s="8" t="b">
         <v>1</v>
@@ -12333,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M206" s="8" t="b">
         <v>1</v>
@@ -12375,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M207" s="8" t="b">
         <v>1</v>
@@ -12420,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M208" s="8" t="b">
         <v>1</v>
@@ -12462,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="L209" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M209" s="8" t="b">
         <v>0</v>
@@ -12504,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M210" s="8" t="b">
         <v>0</v>
@@ -12549,7 +12519,7 @@
         <v>0</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M211" s="8" t="b">
         <v>0</v>
@@ -12591,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="L212" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M212" s="8" t="b">
         <v>0</v>
@@ -12636,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M213" s="8" t="b">
         <v>0</v>
@@ -12681,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M214" s="8" t="b">
         <v>0</v>
@@ -12723,7 +12693,7 @@
         <v>30</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M215" s="8" t="b">
         <v>0</v>
@@ -12768,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M216" s="8" t="b">
         <v>0</v>
@@ -12813,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M217" s="8" t="b">
         <v>0</v>
@@ -12858,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="L218" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M218" s="8" t="b">
         <v>0</v>
@@ -12903,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M219" s="8" t="b">
         <v>0</v>
@@ -12945,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M220" s="8" t="b">
         <v>0</v>
@@ -12987,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M221" s="8" t="b">
         <v>0</v>
@@ -13029,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M222" s="8" t="b">
         <v>0</v>
@@ -13074,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M223" s="8" t="b">
         <v>0</v>
@@ -13119,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M224" s="8" t="b">
         <v>0</v>
@@ -13161,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M225" s="8" t="b">
         <v>0</v>
@@ -13206,7 +13176,7 @@
         <v>0</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M226" s="8" t="b">
         <v>0</v>
@@ -13251,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="L227" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M227" s="8" t="b">
         <v>0</v>
@@ -13296,7 +13266,7 @@
         <v>0</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M228" s="8" t="b">
         <v>0</v>
@@ -13341,7 +13311,7 @@
         <v>0</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M229" s="8" t="b">
         <v>0</v>
@@ -13386,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M230" s="8" t="b">
         <v>0</v>
@@ -13431,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="L231" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M231" s="8" t="b">
         <v>0</v>
@@ -13473,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="L232" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M232" s="8" t="b">
         <v>0</v>
@@ -13518,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="L233" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M233" s="8" t="b">
         <v>0</v>
@@ -13563,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M234" s="8" t="b">
         <v>0</v>
@@ -13605,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M235" s="8" t="b">
         <v>0</v>
@@ -13650,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="L236" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M236" s="8" t="b">
         <v>0</v>
@@ -13695,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="L237" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M237" s="8" t="b">
         <v>0</v>
@@ -13737,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M238" s="8" t="b">
         <v>0</v>
@@ -13779,7 +13749,7 @@
         <v>0</v>
       </c>
       <c r="L239" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M239" s="8" t="b">
         <v>1</v>
@@ -13824,7 +13794,7 @@
         <v>0</v>
       </c>
       <c r="L240" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M240" s="8" t="b">
         <v>1</v>
@@ -13869,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M241" s="8" t="b">
         <v>1</v>
@@ -13911,7 +13881,7 @@
         <v>0</v>
       </c>
       <c r="L242" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M242" s="8" t="b">
         <v>1</v>
@@ -13953,7 +13923,7 @@
         <v>0</v>
       </c>
       <c r="L243" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M243" s="8" t="b">
         <v>1</v>
@@ -13995,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M244" s="8" t="b">
         <v>1</v>
@@ -14040,7 +14010,7 @@
         <v>0</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M245" s="8" t="b">
         <v>1</v>
@@ -14082,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="L246" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M246" s="8" t="b">
         <v>1</v>
@@ -14124,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="L247" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M247" s="8" t="b">
         <v>0</v>
@@ -14166,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M248" s="8" t="b">
         <v>0</v>
@@ -14211,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="L249" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M249" s="8" t="b">
         <v>0</v>
@@ -14253,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="L250" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M250" s="8" t="b">
         <v>0</v>
@@ -14298,7 +14268,7 @@
         <v>0</v>
       </c>
       <c r="L251" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M251" s="8" t="b">
         <v>0</v>
@@ -14343,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M252" s="8" t="b">
         <v>0</v>
@@ -14385,7 +14355,7 @@
         <v>0</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M253" s="8" t="b">
         <v>0</v>
@@ -14430,7 +14400,7 @@
         <v>0</v>
       </c>
       <c r="L254" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M254" s="8" t="b">
         <v>0</v>
@@ -14475,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M255" s="8" t="b">
         <v>0</v>
@@ -14517,7 +14487,7 @@
         <v>0</v>
       </c>
       <c r="L256" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M256" s="8" t="b">
         <v>0</v>
@@ -14562,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="L257" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M257" s="8" t="b">
         <v>0</v>
@@ -14607,7 +14577,7 @@
         <v>0</v>
       </c>
       <c r="L258" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M258" s="8" t="b">
         <v>0</v>
@@ -14649,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M259" s="8" t="b">
         <v>0</v>
@@ -14691,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="L260" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M260" s="8" t="b">
         <v>1</v>
@@ -14733,7 +14703,7 @@
         <v>0</v>
       </c>
       <c r="L261" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M261" s="8" t="b">
         <v>1</v>
@@ -14778,7 +14748,7 @@
         <v>0</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M262" s="8" t="b">
         <v>1</v>
@@ -14823,7 +14793,7 @@
         <v>0</v>
       </c>
       <c r="L263" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M263" s="8" t="b">
         <v>1</v>
@@ -14865,7 +14835,7 @@
         <v>0</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M264" s="8" t="b">
         <v>1</v>
@@ -14907,7 +14877,7 @@
         <v>30</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M265" s="8" t="b">
         <v>1</v>
@@ -14952,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M266" s="8" t="b">
         <v>1</v>
@@ -14997,7 +14967,7 @@
         <v>0</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M267" s="8" t="b">
         <v>1</v>
@@ -15042,7 +15012,7 @@
         <v>0</v>
       </c>
       <c r="L268" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M268" s="8" t="b">
         <v>1</v>
@@ -15087,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="L269" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M269" s="8" t="b">
         <v>1</v>
@@ -15129,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="L270" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M270" s="8" t="b">
         <v>1</v>
@@ -15174,7 +15144,7 @@
         <v>0</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M271" s="8" t="b">
         <v>1</v>
@@ -15216,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M272" s="8" t="b">
         <v>0</v>
@@ -15258,7 +15228,7 @@
         <v>0</v>
       </c>
       <c r="L273" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M273" s="8" t="b">
         <v>0</v>
@@ -15303,7 +15273,7 @@
         <v>0</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M274" s="8" t="b">
         <v>0</v>
@@ -15345,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M275" s="8" t="b">
         <v>0</v>
@@ -15390,7 +15360,7 @@
         <v>0</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M276" s="8" t="b">
         <v>0</v>
@@ -15435,7 +15405,7 @@
         <v>0</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M277" s="8" t="b">
         <v>0</v>
@@ -15477,7 +15447,7 @@
         <v>30</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M278" s="8" t="b">
         <v>0</v>
@@ -15522,7 +15492,7 @@
         <v>0</v>
       </c>
       <c r="L279" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M279" s="8" t="b">
         <v>0</v>
@@ -15567,7 +15537,7 @@
         <v>0</v>
       </c>
       <c r="L280" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M280" s="8" t="b">
         <v>0</v>
@@ -15612,7 +15582,7 @@
         <v>0</v>
       </c>
       <c r="L281" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M281" s="8" t="b">
         <v>0</v>
@@ -15657,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M282" s="8" t="b">
         <v>0</v>
@@ -15699,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M283" s="8" t="b">
         <v>0</v>
@@ -15741,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="L284" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M284" s="8" t="b">
         <v>0</v>
@@ -15783,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="L285" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M285" s="8" t="b">
         <v>0</v>
@@ -15828,7 +15798,7 @@
         <v>0</v>
       </c>
       <c r="L286" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M286" s="8" t="b">
         <v>0</v>
@@ -15873,7 +15843,7 @@
         <v>0</v>
       </c>
       <c r="L287" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M287" s="8" t="b">
         <v>0</v>
@@ -15915,7 +15885,7 @@
         <v>0</v>
       </c>
       <c r="L288" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M288" s="8" t="b">
         <v>0</v>
@@ -15960,7 +15930,7 @@
         <v>0</v>
       </c>
       <c r="L289" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M289" s="8" t="b">
         <v>0</v>
@@ -16005,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="L290" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M290" s="8" t="b">
         <v>0</v>
@@ -16050,7 +16020,7 @@
         <v>0</v>
       </c>
       <c r="L291" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M291" s="8" t="b">
         <v>0</v>
@@ -16095,7 +16065,7 @@
         <v>0</v>
       </c>
       <c r="L292" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M292" s="8" t="b">
         <v>0</v>
@@ -16140,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="L293" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M293" s="8" t="b">
         <v>0</v>
@@ -16185,7 +16155,7 @@
         <v>0</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M294" s="8" t="b">
         <v>0</v>
@@ -16227,7 +16197,7 @@
         <v>0</v>
       </c>
       <c r="L295" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M295" s="8" t="b">
         <v>0</v>
@@ -16272,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="L296" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M296" s="8" t="b">
         <v>0</v>
@@ -16317,7 +16287,7 @@
         <v>0</v>
       </c>
       <c r="L297" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M297" s="8" t="b">
         <v>0</v>
@@ -16359,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M298" s="8" t="b">
         <v>0</v>
@@ -16404,7 +16374,7 @@
         <v>0</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M299" s="8" t="b">
         <v>0</v>
@@ -16449,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="L300" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M300" s="8" t="b">
         <v>0</v>
@@ -16491,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="L301" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M301" s="8" t="b">
         <v>0</v>
@@ -16533,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M302" s="8" t="b">
         <v>1</v>
@@ -16578,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M303" s="8" t="b">
         <v>1</v>
@@ -16620,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M304" s="8" t="b">
         <v>1</v>
@@ -16662,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M305" s="8" t="b">
         <v>0</v>
@@ -16704,7 +16674,7 @@
         <v>0</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M306" s="8" t="b">
         <v>0</v>
@@ -16746,7 +16716,7 @@
         <v>0</v>
       </c>
       <c r="L307" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M307" s="8" t="b">
         <v>0</v>
@@ -16791,7 +16761,7 @@
         <v>0</v>
       </c>
       <c r="L308" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M308" s="8" t="b">
         <v>0</v>
@@ -16836,7 +16806,7 @@
         <v>0</v>
       </c>
       <c r="L309" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M309" s="8" t="b">
         <v>0</v>
@@ -16881,7 +16851,7 @@
         <v>0</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M310" s="8" t="b">
         <v>0</v>
@@ -16926,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="L311" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M311" s="8" t="b">
         <v>0</v>
@@ -16971,7 +16941,7 @@
         <v>0</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M312" s="8" t="b">
         <v>0</v>
@@ -17016,7 +16986,7 @@
         <v>0</v>
       </c>
       <c r="L313" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M313" s="8" t="b">
         <v>0</v>
@@ -17058,7 +17028,7 @@
         <v>0</v>
       </c>
       <c r="L314" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M314" s="8" t="b">
         <v>0</v>
@@ -17103,7 +17073,7 @@
         <v>0</v>
       </c>
       <c r="L315" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M315" s="8" t="b">
         <v>0</v>
@@ -17148,7 +17118,7 @@
         <v>0</v>
       </c>
       <c r="L316" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M316" s="8" t="b">
         <v>0</v>
@@ -17190,7 +17160,7 @@
         <v>0</v>
       </c>
       <c r="L317" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M317" s="8" t="b">
         <v>0</v>
@@ -17232,7 +17202,7 @@
         <v>0</v>
       </c>
       <c r="L318" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M318" s="8" t="b">
         <v>1</v>
@@ -17277,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="L319" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M319" s="8" t="b">
         <v>1</v>
@@ -17350,7 +17320,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B1:B8"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18497,13 +18467,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18559,7 +18529,7 @@
         <v>251</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -18580,10 +18550,10 @@
         <v>253</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -18591,31 +18561,31 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>IF((B4=""),"",VLOOKUP(B4,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Draft Initial Project Description Initial Review is NEGATIVE</v>
+        <v>EAC Assessment Transitions to the EA Act (2018) Readiness Decision PHASE</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8">
         <v>4</v>
@@ -18631,15 +18601,15 @@
         <v>258</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="8">
         <v>4</v>
@@ -18655,15 +18625,15 @@
         <v>260</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="G6" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>4</v>
@@ -18673,45 +18643,45 @@
         <v>EAC Assessment Transitions to the EA Act (2018) Readiness Decision PHASE</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G7" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>IF((B8=""),"",VLOOKUP(B8,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment Transitions to the EA Act (2018) Readiness Decision PHASE</v>
+        <v>EAC Assessment Transitions to the EA Act (2018) Process Planning PHASE</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G8" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8">
         <v>5</v>
@@ -18721,21 +18691,21 @@
         <v>EAC Assessment Transitions to the EA Act (2018) Process Planning PHASE</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>369</v>
+        <v>262</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="G9" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
@@ -18748,42 +18718,42 @@
         <v>250</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G10" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="6" t="str">
         <f>IF((B11=""),"",VLOOKUP(B11,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment Transitions to the EA Act (2018) Process Planning PHASE</v>
+        <v>EAC Assessment Transitions to the EA Act (2018) Application Review PHASE</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G11" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8">
         <v>6</v>
@@ -18796,18 +18766,18 @@
         <v>257</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>371</v>
+        <v>258</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G12" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="8">
         <v>6</v>
@@ -18823,15 +18793,15 @@
         <v>260</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="G13" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="8">
         <v>6</v>
@@ -18841,45 +18811,45 @@
         <v>EAC Assessment Transitions to the EA Act (2018) Application Review PHASE</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G14" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>IF((B15=""),"",VLOOKUP(B15,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment Transitions to the EA Act (2018) Application Review PHASE</v>
+        <v>EAC Assessment Transitions to the EA Act (2018) Effects Assessment &amp; Recommendation PHASE</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G15" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8">
         <v>7</v>
@@ -18892,18 +18862,18 @@
         <v>257</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>371</v>
+        <v>258</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G16" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="8">
         <v>7</v>
@@ -18919,15 +18889,15 @@
         <v>260</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="G17" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="8">
         <v>7</v>
@@ -18937,45 +18907,45 @@
         <v>EAC Assessment Transitions to the EA Act (2018) Effects Assessment &amp; Recommendation PHASE</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G18" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>IF((B19=""),"",VLOOKUP(B19,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment Transitions to the EA Act (2018) Effects Assessment &amp; Recommendation PHASE</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>250</v>
+        <v>Proponent withdraws Submission from the EAC Assessment process</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>255</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G19" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="8">
         <v>8</v>
@@ -18984,22 +18954,22 @@
         <f>IF((B20=""),"",VLOOKUP(B20,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Submission from the EAC Assessment process</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" t="s">
         <v>257</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G20" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="8">
         <v>8</v>
@@ -19008,22 +18978,22 @@
         <f>IF((B21=""),"",VLOOKUP(B21,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Submission from the EAC Assessment process</v>
       </c>
-      <c r="D21" t="s">
-        <v>259</v>
+      <c r="D21" s="48" t="s">
+        <v>268</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>269</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="G21" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="8">
         <v>8</v>
@@ -19039,46 +19009,46 @@
         <v>271</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="G22" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="6" t="str">
         <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the EAC Assessment process</v>
+        <v>Starts the "clock" for EAC Assessment</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="48" t="s">
         <v>273</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G23" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="6" t="str">
         <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Starts the "clock" for EAC Assessment</v>
+        <v>Dispute Resolution is started</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>274</v>
@@ -19087,39 +19057,39 @@
         <v>275</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="G24" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="6" t="str">
         <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="G25" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="8">
         <v>11</v>
@@ -19128,22 +19098,22 @@
         <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" t="s">
         <v>257</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G26" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="8">
         <v>11</v>
@@ -19152,22 +19122,22 @@
         <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D27" t="s">
-        <v>259</v>
+      <c r="D27" s="48" t="s">
+        <v>268</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="G27" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8">
         <v>11</v>
@@ -19180,42 +19150,42 @@
         <v>270</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="G28" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="6" t="str">
         <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G29" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="8">
         <v>12</v>
@@ -19224,22 +19194,22 @@
         <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" t="s">
         <v>257</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G30" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="8">
         <v>12</v>
@@ -19248,22 +19218,22 @@
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D31" t="s">
-        <v>259</v>
+      <c r="D31" s="48" t="s">
+        <v>268</v>
       </c>
       <c r="E31" s="48" t="s">
         <v>269</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="G31" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="8">
         <v>12</v>
@@ -19279,159 +19249,159 @@
         <v>271</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="G32" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" s="6" t="str">
         <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>273</v>
+        <v>End of EAC Assessment: Early Engagement, start of EAC Assessment: DPD Development (Proponent Time)</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G33" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="6" t="str">
         <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>End of EAC Assessment: Early Engagement, start of EAC Assessment: DPD Development (Proponent Time)</v>
+        <v>Draft Detailed Project Description Initial Review is POSITIVE</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>250</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G34" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" s="6" t="str">
         <f>IF((B35=""),"",VLOOKUP(B35,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Draft Detailed Project Description Initial Review is POSITIVE</v>
+        <v>Draft Detailed Project Description Initial Review is NEGATIVE</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>280</v>
+        <v>375</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="G35" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" s="6" t="str">
         <f>IF((B36=""),"",VLOOKUP(B36,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Draft Detailed Project Description Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>281</v>
+        <v>Dispute Resolution is started</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>275</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="G36" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C37" s="6" t="str">
         <f>IF((B37=""),"",VLOOKUP(B37,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Draft Detailed Project Description Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>282</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>266</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>354</v>
       </c>
       <c r="G37" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C38" s="6" t="str">
         <f>IF((B38=""),"",VLOOKUP(B38,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>276</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D38" t="s">
+        <v>257</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="G38" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" s="8">
         <v>17</v>
@@ -19441,21 +19411,21 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="G39" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" s="8">
         <v>17</v>
@@ -19464,70 +19434,70 @@
         <f>IF((B40=""),"",VLOOKUP(B40,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D40" t="s">
-        <v>259</v>
+      <c r="D40" s="48" t="s">
+        <v>270</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="G40" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" s="6" t="str">
         <f>IF((B41=""),"",VLOOKUP(B41,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G41" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" s="6" t="str">
         <f>IF((B42=""),"",VLOOKUP(B42,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>272</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D42" t="s">
+        <v>257</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="G42" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" s="8">
         <v>18</v>
@@ -19537,21 +19507,21 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="G43" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" s="8">
         <v>18</v>
@@ -19560,94 +19530,94 @@
         <f>IF((B44=""),"",VLOOKUP(B44,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D44" t="s">
-        <v>259</v>
+      <c r="D44" s="48" t="s">
+        <v>270</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="G44" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45" s="6" t="str">
         <f>IF((B45=""),"",VLOOKUP(B45,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>Dispute Resolution is started</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="G45" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C46" s="6" t="str">
         <f>IF((B46=""),"",VLOOKUP(B46,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G46" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47" s="6" t="str">
         <f>IF((B47=""),"",VLOOKUP(B47,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>276</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D47" t="s">
+        <v>257</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="G47" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B48" s="8">
         <v>20</v>
@@ -19657,21 +19627,21 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="G48" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" s="8">
         <v>20</v>
@@ -19680,70 +19650,70 @@
         <f>IF((B49=""),"",VLOOKUP(B49,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D49" t="s">
-        <v>259</v>
+      <c r="D49" s="48" t="s">
+        <v>270</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="G49" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B50" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" s="6" t="str">
         <f>IF((B50=""),"",VLOOKUP(B50,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G50" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" s="6" t="str">
         <f>IF((B51=""),"",VLOOKUP(B51,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>272</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D51" t="s">
+        <v>257</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="G51" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52" s="8">
         <v>21</v>
@@ -19753,21 +19723,21 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="G52" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B53" s="8">
         <v>21</v>
@@ -19776,142 +19746,142 @@
         <f>IF((B53=""),"",VLOOKUP(B53,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
-      <c r="D53" t="s">
-        <v>259</v>
+      <c r="D53" s="48" t="s">
+        <v>270</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="G53" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B54" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C54" s="6" t="str">
         <f>IF((B54=""),"",VLOOKUP(B54,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D54" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="E54" s="48" t="s">
-        <v>271</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="G54" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C55" s="6" t="str">
         <f>IF((B55=""),"",VLOOKUP(B55,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E55" s="48" t="s">
-        <v>273</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="G55" s="3">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C56" s="6" t="str">
         <f>IF((B56=""),"",VLOOKUP(B56,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
+        <v>Project moves to Process Planning</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="G56" s="3">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C57" s="6" t="str">
         <f>IF((B57=""),"",VLOOKUP(B57,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
+        <v>Project is Referred to Minister for Termination</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="G57" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58" s="6" t="str">
         <f>IF((B58=""),"",VLOOKUP(B58,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Project moves to Process Planning</v>
+        <v>Project is Referred to Minister for Termination</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>285</v>
+        <v>377</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="G58" s="3">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59" s="8">
         <v>24</v>
@@ -19921,21 +19891,21 @@
         <v>Project is Referred to Minister for Termination</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="G59" s="3">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60" s="8">
         <v>24</v>
@@ -19945,21 +19915,21 @@
         <v>Project is Referred to Minister for Termination</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="G60" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61" s="8">
         <v>24</v>
@@ -19969,93 +19939,93 @@
         <v>Project is Referred to Minister for Termination</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="G61" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C62" s="6" t="str">
         <f>IF((B62=""),"",VLOOKUP(B62,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Project is Referred to Minister for Termination</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>289</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>266</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="G62" s="3">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C63" s="6" t="str">
         <f>IF((B63=""),"",VLOOKUP(B63,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Project is Referred to Minister for Termination</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>290</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D63" t="s">
+        <v>257</v>
+      </c>
+      <c r="E63" s="48" t="s">
+        <v>267</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="G63" s="3">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C64" s="6" t="str">
         <f>IF((B64=""),"",VLOOKUP(B64,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Project is Referred to Minister for Termination</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>291</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>276</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="G64" s="3">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65" s="8">
         <v>26</v>
@@ -20065,93 +20035,93 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E65" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="G65" s="3">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C66" s="6" t="str">
         <f>IF((B66=""),"",VLOOKUP(B66,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D66" t="s">
-        <v>259</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>255</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G66" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C67" s="6" t="str">
         <f>IF((B67=""),"",VLOOKUP(B67,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>270</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D67" t="s">
+        <v>257</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="G67" s="3">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C68" s="6" t="str">
         <f>IF((B68=""),"",VLOOKUP(B68,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G68" s="3">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69" s="8">
         <v>27</v>
@@ -20161,93 +20131,93 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="G69" s="3">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70" s="6" t="str">
         <f>IF((B70=""),"",VLOOKUP(B70,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D70" t="s">
-        <v>259</v>
+        <v>Project is Terminated</v>
+      </c>
+      <c r="D70" s="48" t="s">
+        <v>255</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G70" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71" s="6" t="str">
         <f>IF((B71=""),"",VLOOKUP(B71,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>270</v>
+        <v>Project is Terminated</v>
+      </c>
+      <c r="D71" t="s">
+        <v>257</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="G71" s="3">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72" s="6" t="str">
         <f>IF((B72=""),"",VLOOKUP(B72,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>Project is Terminated</v>
       </c>
       <c r="D72" s="48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G72" s="3">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73" s="8">
         <v>28</v>
@@ -20257,141 +20227,141 @@
         <v>Project is Terminated</v>
       </c>
       <c r="D73" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E73" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="G73" s="3">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C74" s="6" t="str">
         <f>IF((B74=""),"",VLOOKUP(B74,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Project is Terminated</v>
-      </c>
-      <c r="D74" t="s">
-        <v>259</v>
-      </c>
-      <c r="E74" s="48" t="s">
-        <v>269</v>
+        <v>Refer the Project to the CEAO for Further Decision</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="G74" s="3">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C75" s="6" t="str">
         <f>IF((B75=""),"",VLOOKUP(B75,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Project is Terminated</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="E75" s="48" t="s">
-        <v>278</v>
+        <v>Refer the Project to the CEAO for Further Decision</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G75" s="3">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C76" s="6" t="str">
         <f>IF((B76=""),"",VLOOKUP(B76,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Project is Terminated</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D76" s="48" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G76" s="3">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C77" s="6" t="str">
         <f>IF((B77=""),"",VLOOKUP(B77,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Refer the Project to the CEAO for Further Decision</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>293</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D77" t="s">
+        <v>257</v>
+      </c>
+      <c r="E77" s="48" t="s">
+        <v>267</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="G77" s="3">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C78" s="6" t="str">
         <f>IF((B78=""),"",VLOOKUP(B78,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Refer the Project to the CEAO for Further Decision</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>294</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D78" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="E78" s="48" t="s">
+        <v>276</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="G78" s="3">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79" s="8">
         <v>30</v>
@@ -20401,93 +20371,93 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D79" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E79" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="G79" s="3">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C80" s="6" t="str">
         <f>IF((B80=""),"",VLOOKUP(B80,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D80" t="s">
-        <v>259</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D80" s="48" t="s">
+        <v>255</v>
       </c>
       <c r="E80" s="48" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G80" s="3">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C81" s="6" t="str">
         <f>IF((B81=""),"",VLOOKUP(B81,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D81" s="48" t="s">
-        <v>270</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D81" t="s">
+        <v>257</v>
       </c>
       <c r="E81" s="48" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="G81" s="3">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C82" s="6" t="str">
         <f>IF((B82=""),"",VLOOKUP(B82,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D82" s="48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E82" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G82" s="3">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83" s="8">
         <v>31</v>
@@ -20497,237 +20467,237 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D83" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E83" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="G83" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C84" s="6" t="str">
         <f>IF((B84=""),"",VLOOKUP(B84,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D84" t="s">
-        <v>259</v>
-      </c>
-      <c r="E84" s="48" t="s">
-        <v>269</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="G84" s="3">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C85" s="6" t="str">
         <f>IF((B85=""),"",VLOOKUP(B85,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D85" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="E85" s="48" t="s">
-        <v>271</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="G85" s="3">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C86" s="6" t="str">
         <f>IF((B86=""),"",VLOOKUP(B86,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D86" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E86" s="48" t="s">
-        <v>273</v>
+        <v>Project moves to Process Planning</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>342</v>
       </c>
       <c r="G86" s="3">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B87" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C87" s="6" t="str">
         <f>IF((B87=""),"",VLOOKUP(B87,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
+        <v>Set federalInvolvement to "None"</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="G87" s="3">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88" s="8">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C88" s="6" t="str">
         <f>IF((B88=""),"",VLOOKUP(B88,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
+        <v>Set federalInvolvement to "None"</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="G88" s="3">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89" s="8">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C89" s="6" t="str">
         <f>IF((B89=""),"",VLOOKUP(B89,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Project moves to Process Planning</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>295</v>
+        <v>Dispute Resolution is started</v>
+      </c>
+      <c r="D89" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="E89" s="48" t="s">
+        <v>275</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>356</v>
+        <v>252</v>
       </c>
       <c r="G89" s="3">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90" s="8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C90" s="6" t="str">
         <f>IF((B90=""),"",VLOOKUP(B90,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Set federalInvolvement to "None"</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>235</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D90" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E90" s="48" t="s">
+        <v>266</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G90" s="3">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B91" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C91" s="6" t="str">
         <f>IF((B91=""),"",VLOOKUP(B91,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Set federalInvolvement to "None"</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>235</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D91" t="s">
+        <v>257</v>
+      </c>
+      <c r="E91" s="48" t="s">
+        <v>267</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="G91" s="3">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B92" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C92" s="6" t="str">
         <f>IF((B92=""),"",VLOOKUP(B92,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D92" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="E92" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="E92" s="48" t="s">
-        <v>277</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="G92" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B93" s="8">
         <v>39</v>
@@ -20737,93 +20707,93 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D93" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E93" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="G93" s="3">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B94" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C94" s="6" t="str">
         <f>IF((B94=""),"",VLOOKUP(B94,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D94" t="s">
-        <v>259</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D94" s="48" t="s">
+        <v>255</v>
       </c>
       <c r="E94" s="48" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G94" s="3">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B95" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C95" s="6" t="str">
         <f>IF((B95=""),"",VLOOKUP(B95,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D95" s="48" t="s">
-        <v>270</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D95" t="s">
+        <v>257</v>
       </c>
       <c r="E95" s="48" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="G95" s="3">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B96" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C96" s="6" t="str">
         <f>IF((B96=""),"",VLOOKUP(B96,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D96" s="48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E96" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G96" s="3">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B97" s="8">
         <v>40</v>
@@ -20833,1228 +20803,1228 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D97" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="G97" s="3">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B98" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C98" s="6" t="str">
         <f>IF((B98=""),"",VLOOKUP(B98,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D98" t="s">
-        <v>259</v>
-      </c>
-      <c r="E98" s="48" t="s">
-        <v>269</v>
+        <v>End of EAC Assessment: Process Planning PHASE, start of EAC Assessment: DPD Development (Proponent Time) PHASE</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G98" s="3">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B99" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C99" s="6" t="str">
         <f>IF((B99=""),"",VLOOKUP(B99,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D99" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="E99" s="48" t="s">
-        <v>271</v>
+        <v>"Draft" EAC Application Initial Review is POSITIVE</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G99" s="3">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B100" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C100" s="6" t="str">
         <f>IF((B100=""),"",VLOOKUP(B100,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D100" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E100" s="48" t="s">
-        <v>273</v>
+        <v>"Draft" EAC Application Initial Review is NEGATIVE</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="G100" s="3">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B101" s="8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C101" s="6" t="str">
         <f>IF((B101=""),"",VLOOKUP(B101,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>End of EAC Assessment: Process Planning PHASE, start of EAC Assessment: DPD Development (Proponent Time) PHASE</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>266</v>
+        <v>Dispute Resolution is started</v>
+      </c>
+      <c r="D101" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="E101" s="48" t="s">
+        <v>275</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="G101" s="3">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C102" s="6" t="str">
         <f>IF((B102=""),"",VLOOKUP(B102,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>"Draft" EAC Application Initial Review is POSITIVE</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>297</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D102" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E102" s="48" t="s">
+        <v>266</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G102" s="3">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B103" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C103" s="6" t="str">
         <f>IF((B103=""),"",VLOOKUP(B103,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>"Draft" EAC Application Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>298</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D103" t="s">
+        <v>257</v>
+      </c>
+      <c r="E103" s="48" t="s">
+        <v>267</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="G103" s="3">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B104" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C104" s="6" t="str">
         <f>IF((B104=""),"",VLOOKUP(B104,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>"Draft" EAC Application Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>299</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D104" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="E104" s="48" t="s">
+        <v>276</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="G104" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B105" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C105" s="6" t="str">
         <f>IF((B105=""),"",VLOOKUP(B105,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D105" s="48" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E105" s="48" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="G105" s="3">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B106" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C106" s="6" t="str">
         <f>IF((B106=""),"",VLOOKUP(B106,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D106" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E106" s="48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G106" s="3">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B107" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C107" s="6" t="str">
         <f>IF((B107=""),"",VLOOKUP(B107,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D107" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E107" s="48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G107" s="3">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B108" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C108" s="6" t="str">
         <f>IF((B108=""),"",VLOOKUP(B108,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D108" s="48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E108" s="48" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G108" s="3">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B109" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C109" s="6" t="str">
         <f>IF((B109=""),"",VLOOKUP(B109,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D109" s="48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E109" s="48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G109" s="3">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B110" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C110" s="6" t="str">
         <f>IF((B110=""),"",VLOOKUP(B110,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>Dispute Resolution is started</v>
       </c>
       <c r="D110" s="48" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="E110" s="48" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G110" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B111" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C111" s="6" t="str">
         <f>IF((B111=""),"",VLOOKUP(B111,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D111" t="s">
-        <v>259</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D111" s="48" t="s">
+        <v>255</v>
       </c>
       <c r="E111" s="48" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G111" s="3">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B112" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C112" s="6" t="str">
         <f>IF((B112=""),"",VLOOKUP(B112,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D112" s="48" t="s">
-        <v>270</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D112" t="s">
+        <v>257</v>
       </c>
       <c r="E112" s="48" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="G112" s="3">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B113" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C113" s="6" t="str">
         <f>IF((B113=""),"",VLOOKUP(B113,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D113" s="48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E113" s="48" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G113" s="3">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B114" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C114" s="6" t="str">
         <f>IF((B114=""),"",VLOOKUP(B114,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D114" s="48" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E114" s="48" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="G114" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B115" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C115" s="6" t="str">
         <f>IF((B115=""),"",VLOOKUP(B115,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D115" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E115" s="48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G115" s="3">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B116" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C116" s="6" t="str">
         <f>IF((B116=""),"",VLOOKUP(B116,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D116" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E116" s="48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G116" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B117" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C117" s="6" t="str">
         <f>IF((B117=""),"",VLOOKUP(B117,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D117" s="48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E117" s="48" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G117" s="3">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B118" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C118" s="6" t="str">
         <f>IF((B118=""),"",VLOOKUP(B118,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D118" s="48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E118" s="48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G118" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B119" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C119" s="6" t="str">
         <f>IF((B119=""),"",VLOOKUP(B119,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D119" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="E119" s="48" t="s">
-        <v>268</v>
+        <v>End of EAC Assessment: Application Review PHASE, start of EAC Assessment: Revised Application Development (Proponent Time) PHASE</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="G119" s="3">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B120" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C120" s="6" t="str">
         <f>IF((B120=""),"",VLOOKUP(B120,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D120" t="s">
-        <v>259</v>
-      </c>
-      <c r="E120" s="48" t="s">
-        <v>269</v>
+        <v>"Draft" Revised EAC Application Initial Review is POSITIVE</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G120" s="3">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B121" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C121" s="6" t="str">
         <f>IF((B121=""),"",VLOOKUP(B121,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D121" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="E121" s="48" t="s">
-        <v>271</v>
+        <v>"Draft" Revised EAC Application Initial Review is NEGATIVE</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="G121" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B122" s="8">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C122" s="6" t="str">
         <f>IF((B122=""),"",VLOOKUP(B122,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>Dispute Resolution is started</v>
       </c>
       <c r="D122" s="48" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="G122" s="3">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B123" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C123" s="6" t="str">
         <f>IF((B123=""),"",VLOOKUP(B123,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>End of EAC Assessment: Application Review PHASE, start of EAC Assessment: Revised Application Development (Proponent Time) PHASE</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>267</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D123" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E123" s="48" t="s">
+        <v>266</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G123" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B124" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C124" s="6" t="str">
         <f>IF((B124=""),"",VLOOKUP(B124,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>"Draft" Revised EAC Application Initial Review is POSITIVE</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>300</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D124" t="s">
+        <v>257</v>
+      </c>
+      <c r="E124" s="48" t="s">
+        <v>267</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="G124" s="3">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B125" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C125" s="6" t="str">
         <f>IF((B125=""),"",VLOOKUP(B125,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>"Draft" Revised EAC Application Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>301</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D125" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="E125" s="48" t="s">
+        <v>276</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="G125" s="3">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B126" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C126" s="6" t="str">
         <f>IF((B126=""),"",VLOOKUP(B126,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>"Draft" Revised EAC Application Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>302</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D126" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="E126" s="48" t="s">
+        <v>271</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="G126" s="3">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B127" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C127" s="6" t="str">
         <f>IF((B127=""),"",VLOOKUP(B127,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D127" s="48" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="E127" s="48" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="G127" s="3">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B128" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C128" s="6" t="str">
         <f>IF((B128=""),"",VLOOKUP(B128,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D128" s="48" t="s">
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D128" t="s">
         <v>257</v>
       </c>
       <c r="E128" s="48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="G128" s="3">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B129" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C129" s="6" t="str">
         <f>IF((B129=""),"",VLOOKUP(B129,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D129" t="s">
-        <v>259</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D129" s="48" t="s">
+        <v>268</v>
       </c>
       <c r="E129" s="48" t="s">
         <v>269</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G129" s="3">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B130" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C130" s="6" t="str">
         <f>IF((B130=""),"",VLOOKUP(B130,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D130" s="48" t="s">
         <v>270</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="G130" s="3">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B131" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C131" s="6" t="str">
         <f>IF((B131=""),"",VLOOKUP(B131,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Dispute Resolution is started</v>
       </c>
       <c r="D131" s="48" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E131" s="48" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="G131" s="3">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B132" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C132" s="6" t="str">
         <f>IF((B132=""),"",VLOOKUP(B132,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D132" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G132" s="3">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B133" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C133" s="6" t="str">
         <f>IF((B133=""),"",VLOOKUP(B133,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E133" s="48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G133" s="3">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B134" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C134" s="6" t="str">
         <f>IF((B134=""),"",VLOOKUP(B134,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D134" s="48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E134" s="48" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G134" s="3">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B135" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C135" s="6" t="str">
         <f>IF((B135=""),"",VLOOKUP(B135,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D135" s="48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E135" s="48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G135" s="3">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B136" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C136" s="6" t="str">
         <f>IF((B136=""),"",VLOOKUP(B136,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D136" s="48" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="E136" s="48" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="G136" s="3">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B137" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C137" s="6" t="str">
         <f>IF((B137=""),"",VLOOKUP(B137,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D137" s="48" t="s">
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D137" t="s">
         <v>257</v>
       </c>
       <c r="E137" s="48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="G137" s="3">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B138" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C138" s="6" t="str">
         <f>IF((B138=""),"",VLOOKUP(B138,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D138" t="s">
-        <v>259</v>
+        <v>Proponent withdraws Project from EA process</v>
+      </c>
+      <c r="D138" s="48" t="s">
+        <v>268</v>
       </c>
       <c r="E138" s="48" t="s">
         <v>269</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G138" s="3">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B139" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C139" s="6" t="str">
         <f>IF((B139=""),"",VLOOKUP(B139,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D139" s="48" t="s">
         <v>270</v>
       </c>
       <c r="E139" s="48" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="G139" s="3">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B140" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C140" s="6" t="str">
         <f>IF((B140=""),"",VLOOKUP(B140,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D140" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E140" s="48" t="s">
-        <v>273</v>
+        <v>End of EAC Assessment: Effects Assessment &amp; Recommendation PHASE, start of EAC Assessment: Decision PHASE</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G140" s="3">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B141" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C141" s="6" t="str">
         <f>IF((B141=""),"",VLOOKUP(B141,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D141" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E141" s="48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G141" s="3">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B142" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C142" s="6" t="str">
         <f>IF((B142=""),"",VLOOKUP(B142,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D142" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E142" s="48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G142" s="3">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B143" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C143" s="6" t="str">
         <f>IF((B143=""),"",VLOOKUP(B143,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D143" s="48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E143" s="48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G143" s="3">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B144" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C144" s="6" t="str">
         <f>IF((B144=""),"",VLOOKUP(B144,Outcomes!$A$2:$D$62,4,FALSE))</f>
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D144" s="48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E144" s="48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G144" s="3">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B145" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C145" s="6" t="str">
         <f>IF((B145=""),"",VLOOKUP(B145,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>End of EAC Assessment: Effects Assessment &amp; Recommendation PHASE, start of EAC Assessment: Decision PHASE</v>
+        <v>Environmental Assessment Certificate GRANTED</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="G145" s="3">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B146" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C146" s="6" t="str">
         <f>IF((B146=""),"",VLOOKUP(B146,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D146" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="E146" s="48" t="s">
-        <v>268</v>
+        <v>Environmental Assessment Certificate GRANTED</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="G146" s="3">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B147" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C147" s="6" t="str">
         <f>IF((B147=""),"",VLOOKUP(B147,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D147" t="s">
-        <v>259</v>
+        <v>Environmental Assessment Certificate REFUSED</v>
+      </c>
+      <c r="D147" s="48" t="s">
+        <v>268</v>
       </c>
       <c r="E147" s="48" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G147" s="3">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B148" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C148" s="6" t="str">
         <f>IF((B148=""),"",VLOOKUP(B148,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
+        <v>Environmental Assessment Certificate REFUSED</v>
       </c>
       <c r="D148" s="48" t="s">
         <v>270</v>
@@ -22063,131 +22033,41 @@
         <v>271</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="G148" s="3">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
-        <v>154</v>
-      </c>
-      <c r="B149" s="8">
-        <v>60</v>
-      </c>
-      <c r="C149" s="6" t="str">
-        <f>IF((B149=""),"",VLOOKUP(B149,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Proponent withdraws Project from EA process</v>
-      </c>
-      <c r="D149" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E149" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G149" s="3">
-        <v>154</v>
-      </c>
+      <c r="A149" s="3"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="6"/>
+      <c r="G149" s="3"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
-        <v>155</v>
-      </c>
-      <c r="B150" s="8">
-        <v>61</v>
-      </c>
-      <c r="C150" s="6" t="str">
-        <f>IF((B150=""),"",VLOOKUP(B150,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Environmental Assessment Certificate GRANTED</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G150" s="3">
-        <v>155</v>
-      </c>
+      <c r="A150" s="3"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="6"/>
+      <c r="G150" s="3"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
-        <v>156</v>
-      </c>
-      <c r="B151" s="8">
-        <v>61</v>
-      </c>
-      <c r="C151" s="6" t="str">
-        <f>IF((B151=""),"",VLOOKUP(B151,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Environmental Assessment Certificate GRANTED</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G151" s="3">
-        <v>156</v>
-      </c>
+      <c r="A151" s="3"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="6"/>
+      <c r="G151" s="3"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
-        <v>157</v>
-      </c>
-      <c r="B152" s="8">
-        <v>62</v>
-      </c>
-      <c r="C152" s="6" t="str">
-        <f>IF((B152=""),"",VLOOKUP(B152,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Environmental Assessment Certificate REFUSED</v>
-      </c>
-      <c r="D152" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="E152" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G152" s="3">
-        <v>157</v>
-      </c>
+      <c r="A152" s="3"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="6"/>
+      <c r="G152" s="3"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
-        <v>158</v>
-      </c>
-      <c r="B153" s="8">
-        <v>62</v>
-      </c>
-      <c r="C153" s="6" t="str">
-        <f>IF((B153=""),"",VLOOKUP(B153,Outcomes!$A$2:$D$62,4,FALSE))</f>
-        <v>Environmental Assessment Certificate REFUSED</v>
-      </c>
-      <c r="D153" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E153" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G153" s="3">
-        <v>158</v>
-      </c>
+      <c r="A153" s="3"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="6"/>
+      <c r="G153" s="3"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
@@ -23010,36 +22890,6 @@
       <c r="B290" s="8"/>
       <c r="C290" s="6"/>
       <c r="G290" s="3"/>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A291" s="3"/>
-      <c r="B291" s="8"/>
-      <c r="C291" s="6"/>
-      <c r="G291" s="3"/>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A292" s="3"/>
-      <c r="B292" s="8"/>
-      <c r="C292" s="6"/>
-      <c r="G292" s="3"/>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A293" s="3"/>
-      <c r="B293" s="8"/>
-      <c r="C293" s="6"/>
-      <c r="G293" s="3"/>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A294" s="3"/>
-      <c r="B294" s="8"/>
-      <c r="C294" s="6"/>
-      <c r="G294" s="3"/>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A295" s="3"/>
-      <c r="B295" s="8"/>
-      <c r="C295" s="6"/>
-      <c r="G295" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23051,7 +22901,7 @@
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$62</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B295</xm:sqref>
+          <xm:sqref>B2:B290</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -23102,7 +22952,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -23111,11 +22961,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -23127,11 +22977,11 @@
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -23176,7 +23026,7 @@
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -23197,7 +23047,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>46</v>
@@ -23208,10 +23058,10 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -23229,7 +23079,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>48</v>
@@ -23240,10 +23090,10 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>45</v>
@@ -23255,7 +23105,7 @@
         <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>74</v>
@@ -23275,12 +23125,12 @@
         <v>51</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>45</v>
@@ -23292,12 +23142,12 @@
         <v>81</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>45</v>
@@ -23309,12 +23159,12 @@
         <v>107</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>45</v>
@@ -23326,12 +23176,12 @@
         <v>115</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>45</v>
@@ -23340,12 +23190,12 @@
         <v>56</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>45</v>
@@ -23357,7 +23207,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>45</v>
@@ -23369,7 +23219,7 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>107</v>
@@ -23381,7 +23231,7 @@
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>107</v>
@@ -23393,7 +23243,7 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>115</v>
@@ -23443,7 +23293,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
@@ -23467,7 +23317,7 @@
         <v>32</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
@@ -23547,7 +23397,7 @@
         <v>54</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -23579,7 +23429,7 @@
         <v>51</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
@@ -23587,7 +23437,7 @@
         <v>51</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
@@ -23688,7 +23538,7 @@
         <v>216</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>252</v>
@@ -23712,7 +23562,7 @@
         <v>216</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>252</v>
@@ -23736,7 +23586,7 @@
         <v>216</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>252</v>
@@ -23760,7 +23610,7 @@
         <v>216</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>252</v>

--- a/epictrack-api/src/api/templates/event_templates/assessment/001_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/001_EAC_Assessment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38999C06-5EB5-41CC-AE4B-CB4C7D451EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936B0287-E8AA-45EF-A6D7-02CA5DC47C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="381">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -1321,9 +1321,6 @@
   </si>
   <si>
     <t>{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Last Day of EAC Assessment Readiness Decision (Date Capture Milestone)" }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Revised Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Detailed Project Description Received", "start_at": 1 }</t>
   </si>
   <si>
     <t>[{"phase_name":"DPD Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised DPD Development (Proponent Time)", "legislated": false },{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "new_name": "Revised Readiness Decision", "legislated": false }]</t>
@@ -18470,10 +18467,10 @@
   <dimension ref="A1:G290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A122" sqref="A122:XFD122"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18550,10 +18547,10 @@
         <v>253</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -19318,10 +19315,10 @@
         <v>253</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G35" s="3">
         <v>36</v>
@@ -19777,7 +19774,7 @@
         <v>280</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G54" s="3">
         <v>56</v>
@@ -19801,7 +19798,7 @@
         <v>261</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G55" s="3">
         <v>58</v>
@@ -19849,7 +19846,7 @@
         <v>282</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G57" s="3">
         <v>60</v>
@@ -19870,10 +19867,10 @@
         <v>253</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G58" s="3">
         <v>61</v>
@@ -20257,7 +20254,7 @@
         <v>287</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G74" s="3">
         <v>79</v>
@@ -20497,7 +20494,7 @@
         <v>280</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G84" s="3">
         <v>89</v>
@@ -20521,7 +20518,7 @@
         <v>261</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G85" s="3">
         <v>91</v>
@@ -20878,10 +20875,10 @@
         <v>253</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G100" s="3">
         <v>108</v>
@@ -21382,10 +21379,10 @@
         <v>253</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G121" s="3">
         <v>130</v>

--- a/epictrack-api/src/api/templates/event_templates/assessment/001_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/001_EAC_Assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936B0287-E8AA-45EF-A6D7-02CA5DC47C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C5B9A4-4C62-4CD5-9864-A7B8BB323E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="2" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -2048,55 +2048,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -2117,18 +2117,18 @@
       <selection pane="bottomRight" activeCell="H8" sqref="H8:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="12.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.6328125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="12.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2505,783 +2505,783 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34"/>
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="B38"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40"/>
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42"/>
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46"/>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52"/>
       <c r="B52"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54"/>
       <c r="B54"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57"/>
       <c r="B57"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58"/>
       <c r="B58"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59"/>
       <c r="B59"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60"/>
       <c r="B60"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61"/>
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62"/>
       <c r="B62"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="B63"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64"/>
       <c r="B64"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65"/>
       <c r="B65"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66"/>
       <c r="B66"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67"/>
       <c r="B67"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="B69"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71"/>
       <c r="B71"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73"/>
       <c r="B73"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="B75"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77"/>
       <c r="B77"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79"/>
       <c r="B79"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="B81"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83"/>
       <c r="B83"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85"/>
       <c r="B85"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="B87"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89"/>
       <c r="B89"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91"/>
       <c r="B91"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93"/>
       <c r="B93"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95"/>
       <c r="B95"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97"/>
       <c r="B97"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99"/>
       <c r="B99"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101"/>
       <c r="B101"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103"/>
       <c r="B103"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105"/>
       <c r="B105"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107"/>
       <c r="B107"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109"/>
       <c r="B109"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111"/>
       <c r="B111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113"/>
       <c r="B113"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115"/>
       <c r="B115"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117"/>
       <c r="B117"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119"/>
       <c r="B119"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121"/>
       <c r="B121"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123"/>
       <c r="B123"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125"/>
       <c r="B125"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127"/>
       <c r="B127"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129"/>
       <c r="B129"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131"/>
       <c r="B131"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133"/>
       <c r="B133"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135"/>
       <c r="B135"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137"/>
       <c r="B137"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139"/>
       <c r="B139"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141"/>
       <c r="B141"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143"/>
       <c r="B143"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145"/>
       <c r="B145"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147"/>
       <c r="B147"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149"/>
       <c r="B149"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151"/>
       <c r="B151"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153"/>
       <c r="B153"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155"/>
       <c r="B155"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157"/>
       <c r="B157"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159"/>
       <c r="B159"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161"/>
       <c r="B161"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163"/>
       <c r="B163"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165"/>
       <c r="B165"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167"/>
       <c r="B167"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169"/>
       <c r="B169"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171"/>
       <c r="B171"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173"/>
       <c r="B173"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175"/>
       <c r="B175"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177"/>
       <c r="B177"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179"/>
       <c r="B179"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181"/>
       <c r="B181"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183"/>
       <c r="B183"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185"/>
       <c r="B185"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187"/>
       <c r="B187"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189"/>
       <c r="B189"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191"/>
       <c r="B191"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193"/>
       <c r="B193"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195"/>
       <c r="B195"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197"/>
       <c r="B197"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199"/>
       <c r="B199"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201"/>
       <c r="B201"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203"/>
       <c r="B203"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205"/>
       <c r="B205"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207"/>
       <c r="B207"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208"/>
       <c r="B208"/>
     </row>
@@ -3318,29 +3318,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
   <dimension ref="A1:N319"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D301" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D104" sqref="D104"/>
+      <selection pane="bottomRight" activeCell="H318" sqref="H318"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="14.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.6328125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.6328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="14.6328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>52</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>53</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>55</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>56</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>57</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>58</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>59</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>60</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>61</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>62</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>63</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>64</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>65</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>66</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>67</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>68</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>69</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>70</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>71</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>72</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>73</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>74</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>75</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>76</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>77</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>78</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>79</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>80</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>81</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>82</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>83</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>84</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>85</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>86</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>87</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>88</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>89</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>90</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>91</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>92</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>93</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>94</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>95</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>96</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>97</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>98</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>99</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>100</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>101</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <v>102</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="31">
         <v>103</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="36">
         <v>104</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>105</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>106</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>107</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>108</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>109</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>110</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>111</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>112</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>113</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>114</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>115</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>116</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>117</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>118</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>119</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>120</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>121</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>122</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>123</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>124</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>125</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>126</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
         <v>127</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="46">
         <v>128</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>129</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>130</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>131</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>132</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>133</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>134</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>135</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>136</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>137</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>138</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>139</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>140</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>141</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>142</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>143</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>144</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>145</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>146</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>147</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>148</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>149</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>150</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>151</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>152</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>153</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>154</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>155</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>156</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>157</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>158</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>159</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>160</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>161</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>162</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>163</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>164</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>166</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>167</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>169</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>170</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>171</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>172</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>173</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>174</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>175</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>176</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>177</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>178</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>179</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>180</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>181</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>182</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>183</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>184</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>185</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>186</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>187</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>188</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>189</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>190</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>191</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>192</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>193</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>194</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>195</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>196</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>197</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>198</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>199</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>200</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>201</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>202</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>203</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>204</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>205</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>206</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>207</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>208</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>209</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>210</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>211</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>212</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>213</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>214</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>215</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>216</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>217</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>218</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>219</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>220</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>221</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>222</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>223</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>224</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>225</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>226</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>227</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>228</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>229</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>230</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>232</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>233</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>235</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>236</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>237</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>238</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>239</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>240</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>241</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>242</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>243</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>244</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>245</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>246</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>247</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>248</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>249</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>250</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>251</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>252</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>253</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>254</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>255</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>256</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>257</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>258</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>259</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>260</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>261</v>
       </c>
@@ -14493,7 +14493,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>262</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>263</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>264</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>265</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>266</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>267</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>268</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>269</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>270</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>271</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>272</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>273</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>274</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>275</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>276</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>277</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>278</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
         <v>279</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>280</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
         <v>281</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>282</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
         <v>283</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>284</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
         <v>285</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>286</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
         <v>287</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>288</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
         <v>289</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <v>290</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
         <v>291</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>292</v>
       </c>
@@ -15849,7 +15849,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
         <v>293</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <v>294</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
         <v>295</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>297</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>298</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>300</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
         <v>301</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <v>302</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
         <v>303</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <v>304</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
         <v>305</v>
       </c>
@@ -16335,7 +16335,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <v>306</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
         <v>307</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <v>308</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
         <v>309</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <v>310</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
         <v>311</v>
       </c>
@@ -16575,7 +16575,7 @@
         <v>45</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I304" s="7" t="b">
         <v>0</v>
@@ -16596,7 +16596,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <v>312</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
         <v>313</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>314</v>
       </c>
@@ -16722,7 +16722,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
         <v>315</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <v>316</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
         <v>318</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <v>319</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A312" s="3">
         <v>321</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
         <v>322</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A314" s="3">
         <v>323</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
         <v>324</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A316" s="3">
         <v>325</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
         <v>326</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A318" s="3">
         <v>327</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>32</v>
       </c>
       <c r="H318" s="7" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="I318" s="7" t="b">
         <v>0</v>
@@ -17208,7 +17208,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
         <v>328</v>
       </c>
@@ -17320,16 +17320,16 @@
       <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="70.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="70.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -17526,7 +17526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -17544,7 +17544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -17562,7 +17562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -17616,7 +17616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -17634,7 +17634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -17742,7 +17742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -17814,7 +17814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>29</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>32</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -17940,7 +17940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>37</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -18012,7 +18012,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>39</v>
       </c>
@@ -18030,7 +18030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>40</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>42</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>43</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>44</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>45</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>46</v>
       </c>
@@ -18156,7 +18156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>47</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>48</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>49</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>50</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>51</v>
       </c>
@@ -18246,7 +18246,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>52</v>
       </c>
@@ -18264,7 +18264,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>53</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>54</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>55</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>56</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>57</v>
       </c>
@@ -18354,7 +18354,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>58</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>59</v>
       </c>
@@ -18390,7 +18390,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>60</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>61</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>62</v>
       </c>
@@ -18466,26 +18466,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
   <dimension ref="A1:G290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="108.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.90625" style="2"/>
+    <col min="2" max="2" width="12.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="108.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -18532,7 +18532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>6</v>
       </c>
@@ -18604,7 +18604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>7</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>8</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>9</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>10</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>11</v>
       </c>
@@ -18724,7 +18724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>12</v>
       </c>
@@ -18748,7 +18748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>13</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>14</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>15</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>16</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>17</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>18</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>19</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>20</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>21</v>
       </c>
@@ -18964,7 +18964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>22</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>23</v>
       </c>
@@ -19012,7 +19012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>24</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>25</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>26</v>
       </c>
@@ -19084,7 +19084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>27</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>28</v>
       </c>
@@ -19132,7 +19132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>29</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -19180,7 +19180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>31</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>32</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>33</v>
       </c>
@@ -19252,7 +19252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>34</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>35</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>36</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>38</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>39</v>
       </c>
@@ -19372,7 +19372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>40</v>
       </c>
@@ -19396,7 +19396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>41</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>42</v>
       </c>
@@ -19444,7 +19444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>43</v>
       </c>
@@ -19468,7 +19468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>44</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>45</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>46</v>
       </c>
@@ -19540,7 +19540,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>47</v>
       </c>
@@ -19564,7 +19564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>48</v>
       </c>
@@ -19588,7 +19588,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>49</v>
       </c>
@@ -19612,7 +19612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>50</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>51</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>52</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>53</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>54</v>
       </c>
@@ -19732,7 +19732,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>55</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>56</v>
       </c>
@@ -19780,7 +19780,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>58</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>59</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>60</v>
       </c>
@@ -19852,7 +19852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>61</v>
       </c>
@@ -19876,7 +19876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>63</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>64</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>65</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>67</v>
       </c>
@@ -19972,7 +19972,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>68</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>69</v>
       </c>
@@ -20020,7 +20020,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>70</v>
       </c>
@@ -20044,7 +20044,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>71</v>
       </c>
@@ -20068,7 +20068,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>72</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>73</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>74</v>
       </c>
@@ -20140,7 +20140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>75</v>
       </c>
@@ -20164,7 +20164,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>76</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>77</v>
       </c>
@@ -20212,7 +20212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>78</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>79</v>
       </c>
@@ -20260,7 +20260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>80</v>
       </c>
@@ -20284,7 +20284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>81</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>82</v>
       </c>
@@ -20332,7 +20332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>83</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>84</v>
       </c>
@@ -20380,7 +20380,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>85</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>86</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>87</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>88</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>89</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>91</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>92</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>94</v>
       </c>
@@ -20572,7 +20572,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>96</v>
       </c>
@@ -20596,7 +20596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>97</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>98</v>
       </c>
@@ -20644,7 +20644,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>99</v>
       </c>
@@ -20668,7 +20668,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>100</v>
       </c>
@@ -20692,7 +20692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>101</v>
       </c>
@@ -20716,7 +20716,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>102</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>103</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>104</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>105</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>106</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>107</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>108</v>
       </c>
@@ -20884,7 +20884,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>110</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>111</v>
       </c>
@@ -20932,7 +20932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>112</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>113</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>114</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>115</v>
       </c>
@@ -21028,7 +21028,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>116</v>
       </c>
@@ -21052,7 +21052,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>117</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>118</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>119</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>120</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>121</v>
       </c>
@@ -21172,7 +21172,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>122</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>123</v>
       </c>
@@ -21220,7 +21220,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>124</v>
       </c>
@@ -21244,7 +21244,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>125</v>
       </c>
@@ -21268,7 +21268,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>126</v>
       </c>
@@ -21292,7 +21292,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>127</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>128</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>129</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>130</v>
       </c>
@@ -21388,7 +21388,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>132</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>133</v>
       </c>
@@ -21436,7 +21436,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>134</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>135</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>136</v>
       </c>
@@ -21508,7 +21508,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>137</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>138</v>
       </c>
@@ -21556,7 +21556,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>139</v>
       </c>
@@ -21580,7 +21580,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>140</v>
       </c>
@@ -21604,7 +21604,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>141</v>
       </c>
@@ -21628,7 +21628,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>142</v>
       </c>
@@ -21652,7 +21652,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>143</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>144</v>
       </c>
@@ -21700,7 +21700,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>145</v>
       </c>
@@ -21724,7 +21724,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>146</v>
       </c>
@@ -21748,7 +21748,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>147</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>148</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>149</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>150</v>
       </c>
@@ -21844,7 +21844,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>151</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>152</v>
       </c>
@@ -21892,7 +21892,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>153</v>
       </c>
@@ -21916,7 +21916,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>154</v>
       </c>
@@ -21940,7 +21940,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>155</v>
       </c>
@@ -21964,7 +21964,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>156</v>
       </c>
@@ -21988,7 +21988,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>157</v>
       </c>
@@ -22012,7 +22012,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>158</v>
       </c>
@@ -22036,853 +22036,853 @@
         <v>158</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="8"/>
       <c r="C149" s="6"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="8"/>
       <c r="C150" s="6"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="8"/>
       <c r="C151" s="6"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="8"/>
       <c r="C152" s="6"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="8"/>
       <c r="C153" s="6"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="8"/>
       <c r="C154" s="6"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="8"/>
       <c r="C155" s="6"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="8"/>
       <c r="C156" s="6"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="8"/>
       <c r="C157" s="6"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="8"/>
       <c r="C158" s="6"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="8"/>
       <c r="C159" s="6"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="8"/>
       <c r="C160" s="6"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="8"/>
       <c r="C161" s="6"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="8"/>
       <c r="C162" s="6"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="8"/>
       <c r="C163" s="6"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="8"/>
       <c r="C164" s="6"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="8"/>
       <c r="C165" s="6"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="8"/>
       <c r="C166" s="6"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="8"/>
       <c r="C167" s="6"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="8"/>
       <c r="C168" s="6"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="8"/>
       <c r="C169" s="6"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="8"/>
       <c r="C170" s="6"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="8"/>
       <c r="C171" s="6"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="8"/>
       <c r="C172" s="6"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="8"/>
       <c r="C173" s="6"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="8"/>
       <c r="C174" s="6"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="8"/>
       <c r="C175" s="6"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="8"/>
       <c r="C176" s="6"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="8"/>
       <c r="C177" s="6"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="8"/>
       <c r="C178" s="6"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
       <c r="B179" s="8"/>
       <c r="C179" s="6"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="8"/>
       <c r="C180" s="6"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="8"/>
       <c r="C181" s="6"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="3"/>
       <c r="B182" s="8"/>
       <c r="C182" s="6"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="3"/>
       <c r="B183" s="8"/>
       <c r="C183" s="6"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="3"/>
       <c r="B184" s="8"/>
       <c r="C184" s="6"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="3"/>
       <c r="B185" s="8"/>
       <c r="C185" s="6"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
       <c r="B186" s="8"/>
       <c r="C186" s="6"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="8"/>
       <c r="C187" s="6"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
       <c r="B188" s="8"/>
       <c r="C188" s="6"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
       <c r="B189" s="8"/>
       <c r="C189" s="6"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
       <c r="B190" s="8"/>
       <c r="C190" s="6"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
       <c r="B191" s="8"/>
       <c r="C191" s="6"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
       <c r="B192" s="8"/>
       <c r="C192" s="6"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
       <c r="B193" s="8"/>
       <c r="C193" s="6"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
       <c r="B194" s="8"/>
       <c r="C194" s="6"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
       <c r="B195" s="8"/>
       <c r="C195" s="6"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="8"/>
       <c r="C196" s="6"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="8"/>
       <c r="C197" s="6"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="8"/>
       <c r="C198" s="6"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="8"/>
       <c r="C199" s="6"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="8"/>
       <c r="C200" s="6"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="8"/>
       <c r="C201" s="6"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
       <c r="B202" s="8"/>
       <c r="C202" s="6"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="3"/>
       <c r="B203" s="8"/>
       <c r="C203" s="6"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="3"/>
       <c r="B204" s="8"/>
       <c r="C204" s="6"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="3"/>
       <c r="B205" s="8"/>
       <c r="C205" s="6"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="3"/>
       <c r="B206" s="8"/>
       <c r="C206" s="6"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="3"/>
       <c r="B207" s="8"/>
       <c r="C207" s="6"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="3"/>
       <c r="B208" s="8"/>
       <c r="C208" s="6"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="3"/>
       <c r="B209" s="8"/>
       <c r="C209" s="6"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="3"/>
       <c r="B210" s="8"/>
       <c r="C210" s="6"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="3"/>
       <c r="B211" s="8"/>
       <c r="C211" s="6"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="3"/>
       <c r="B212" s="8"/>
       <c r="C212" s="6"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="3"/>
       <c r="B213" s="8"/>
       <c r="C213" s="6"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
       <c r="B214" s="8"/>
       <c r="C214" s="6"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="3"/>
       <c r="B215" s="8"/>
       <c r="C215" s="6"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="3"/>
       <c r="B216" s="8"/>
       <c r="C216" s="6"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="3"/>
       <c r="B217" s="8"/>
       <c r="C217" s="6"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="3"/>
       <c r="B218" s="8"/>
       <c r="C218" s="6"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="3"/>
       <c r="B219" s="8"/>
       <c r="C219" s="6"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="3"/>
       <c r="B220" s="8"/>
       <c r="C220" s="6"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="3"/>
       <c r="B221" s="8"/>
       <c r="C221" s="6"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="3"/>
       <c r="B222" s="8"/>
       <c r="C222" s="6"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="3"/>
       <c r="B223" s="8"/>
       <c r="C223" s="6"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="3"/>
       <c r="B224" s="8"/>
       <c r="C224" s="6"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="3"/>
       <c r="B225" s="8"/>
       <c r="C225" s="6"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="3"/>
       <c r="B226" s="8"/>
       <c r="C226" s="6"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="3"/>
       <c r="B227" s="8"/>
       <c r="C227" s="6"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="3"/>
       <c r="B228" s="8"/>
       <c r="C228" s="6"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="3"/>
       <c r="B229" s="8"/>
       <c r="C229" s="6"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="3"/>
       <c r="B230" s="8"/>
       <c r="C230" s="6"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="3"/>
       <c r="B231" s="8"/>
       <c r="C231" s="6"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="3"/>
       <c r="B232" s="8"/>
       <c r="C232" s="6"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="3"/>
       <c r="B233" s="8"/>
       <c r="C233" s="6"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="3"/>
       <c r="B234" s="8"/>
       <c r="C234" s="6"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="3"/>
       <c r="B235" s="8"/>
       <c r="C235" s="6"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="3"/>
       <c r="B236" s="8"/>
       <c r="C236" s="6"/>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="3"/>
       <c r="B237" s="8"/>
       <c r="C237" s="6"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="3"/>
       <c r="B238" s="8"/>
       <c r="C238" s="6"/>
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="3"/>
       <c r="B239" s="8"/>
       <c r="C239" s="6"/>
       <c r="G239" s="3"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="3"/>
       <c r="B240" s="8"/>
       <c r="C240" s="6"/>
       <c r="G240" s="3"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="3"/>
       <c r="B241" s="8"/>
       <c r="C241" s="6"/>
       <c r="G241" s="3"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="3"/>
       <c r="B242" s="8"/>
       <c r="C242" s="6"/>
       <c r="G242" s="3"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="3"/>
       <c r="B243" s="8"/>
       <c r="C243" s="6"/>
       <c r="G243" s="3"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="3"/>
       <c r="B244" s="8"/>
       <c r="C244" s="6"/>
       <c r="G244" s="3"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="3"/>
       <c r="B245" s="8"/>
       <c r="C245" s="6"/>
       <c r="G245" s="3"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="3"/>
       <c r="B246" s="8"/>
       <c r="C246" s="6"/>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="3"/>
       <c r="B247" s="8"/>
       <c r="C247" s="6"/>
       <c r="G247" s="3"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="3"/>
       <c r="B248" s="8"/>
       <c r="C248" s="6"/>
       <c r="G248" s="3"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="3"/>
       <c r="B249" s="8"/>
       <c r="C249" s="6"/>
       <c r="G249" s="3"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="3"/>
       <c r="B250" s="8"/>
       <c r="C250" s="6"/>
       <c r="G250" s="3"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="3"/>
       <c r="B251" s="8"/>
       <c r="C251" s="6"/>
       <c r="G251" s="3"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="3"/>
       <c r="B252" s="8"/>
       <c r="C252" s="6"/>
       <c r="G252" s="3"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="3"/>
       <c r="B253" s="8"/>
       <c r="C253" s="6"/>
       <c r="G253" s="3"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="3"/>
       <c r="B254" s="8"/>
       <c r="C254" s="6"/>
       <c r="G254" s="3"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="3"/>
       <c r="B255" s="8"/>
       <c r="C255" s="6"/>
       <c r="G255" s="3"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="3"/>
       <c r="B256" s="8"/>
       <c r="C256" s="6"/>
       <c r="G256" s="3"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="3"/>
       <c r="B257" s="8"/>
       <c r="C257" s="6"/>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="3"/>
       <c r="B258" s="8"/>
       <c r="C258" s="6"/>
       <c r="G258" s="3"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="3"/>
       <c r="B259" s="8"/>
       <c r="C259" s="6"/>
       <c r="G259" s="3"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="3"/>
       <c r="B260" s="8"/>
       <c r="C260" s="6"/>
       <c r="G260" s="3"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="3"/>
       <c r="B261" s="8"/>
       <c r="C261" s="6"/>
       <c r="G261" s="3"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="3"/>
       <c r="B262" s="8"/>
       <c r="C262" s="6"/>
       <c r="G262" s="3"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="3"/>
       <c r="B263" s="8"/>
       <c r="C263" s="6"/>
       <c r="G263" s="3"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="3"/>
       <c r="B264" s="8"/>
       <c r="C264" s="6"/>
       <c r="G264" s="3"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="3"/>
       <c r="B265" s="8"/>
       <c r="C265" s="6"/>
       <c r="G265" s="3"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="3"/>
       <c r="B266" s="8"/>
       <c r="C266" s="6"/>
       <c r="G266" s="3"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="3"/>
       <c r="B267" s="8"/>
       <c r="C267" s="6"/>
       <c r="G267" s="3"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="3"/>
       <c r="B268" s="8"/>
       <c r="C268" s="6"/>
       <c r="G268" s="3"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="3"/>
       <c r="B269" s="8"/>
       <c r="C269" s="6"/>
       <c r="G269" s="3"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="3"/>
       <c r="B270" s="8"/>
       <c r="C270" s="6"/>
       <c r="G270" s="3"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="3"/>
       <c r="B271" s="8"/>
       <c r="C271" s="6"/>
       <c r="G271" s="3"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="3"/>
       <c r="B272" s="8"/>
       <c r="C272" s="6"/>
       <c r="G272" s="3"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="3"/>
       <c r="B273" s="8"/>
       <c r="C273" s="6"/>
       <c r="G273" s="3"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="3"/>
       <c r="B274" s="8"/>
       <c r="C274" s="6"/>
       <c r="G274" s="3"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="3"/>
       <c r="B275" s="8"/>
       <c r="C275" s="6"/>
       <c r="G275" s="3"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="3"/>
       <c r="B276" s="8"/>
       <c r="C276" s="6"/>
       <c r="G276" s="3"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="3"/>
       <c r="B277" s="8"/>
       <c r="C277" s="6"/>
       <c r="G277" s="3"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="3"/>
       <c r="B278" s="8"/>
       <c r="C278" s="6"/>
       <c r="G278" s="3"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="3"/>
       <c r="B279" s="8"/>
       <c r="C279" s="6"/>
       <c r="G279" s="3"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="3"/>
       <c r="B280" s="8"/>
       <c r="C280" s="6"/>
       <c r="G280" s="3"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="3"/>
       <c r="B281" s="8"/>
       <c r="C281" s="6"/>
       <c r="G281" s="3"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="3"/>
       <c r="B282" s="8"/>
       <c r="C282" s="6"/>
       <c r="G282" s="3"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="3"/>
       <c r="B283" s="8"/>
       <c r="C283" s="6"/>
       <c r="G283" s="3"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="3"/>
       <c r="B284" s="8"/>
       <c r="C284" s="6"/>
       <c r="G284" s="3"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="3"/>
       <c r="B285" s="8"/>
       <c r="C285" s="6"/>
       <c r="G285" s="3"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="3"/>
       <c r="B286" s="8"/>
       <c r="C286" s="6"/>
       <c r="G286" s="3"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="3"/>
       <c r="B287" s="8"/>
       <c r="C287" s="6"/>
       <c r="G287" s="3"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="3"/>
       <c r="B288" s="8"/>
       <c r="C288" s="6"/>
       <c r="G288" s="3"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="3"/>
       <c r="B289" s="8"/>
       <c r="C289" s="6"/>
       <c r="G289" s="3"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="3"/>
       <c r="B290" s="8"/>
       <c r="C290" s="6"/>
@@ -22915,34 +22915,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" style="4" customWidth="1"/>
-    <col min="20" max="58" width="3.6640625" style="4" customWidth="1"/>
-    <col min="59" max="59" width="8.88671875" style="4"/>
-    <col min="60" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="3.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.6328125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.6328125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.6328125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.6328125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="3.6328125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="3.6328125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.6328125" style="4" customWidth="1"/>
+    <col min="20" max="58" width="3.6328125" style="4" customWidth="1"/>
+    <col min="59" max="59" width="8.90625" style="4"/>
+    <col min="60" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -23021,7 +23021,7 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>302</v>
       </c>
@@ -23053,7 +23053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>304</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>307</v>
       </c>
@@ -23108,7 +23108,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
@@ -23125,7 +23125,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>311</v>
       </c>
@@ -23142,7 +23142,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>313</v>
       </c>
@@ -23159,7 +23159,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>315</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>317</v>
       </c>
@@ -23190,7 +23190,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>319</v>
       </c>
@@ -23202,7 +23202,7 @@
       </c>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>320</v>
       </c>
@@ -23214,7 +23214,7 @@
       </c>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>321</v>
       </c>
@@ -23226,7 +23226,7 @@
       </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>322</v>
       </c>
@@ -23238,7 +23238,7 @@
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>323</v>
       </c>
@@ -23250,7 +23250,7 @@
       </c>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>71</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H17" s="4" t="s">
         <v>32</v>
       </c>
@@ -23269,7 +23269,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H18" s="4" t="s">
         <v>32</v>
       </c>
@@ -23277,7 +23277,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H19" s="4" t="s">
         <v>32</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H20" s="4" t="s">
         <v>32</v>
       </c>
@@ -23293,7 +23293,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H21" s="4" t="s">
         <v>32</v>
       </c>
@@ -23301,7 +23301,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H22" s="4" t="s">
         <v>32</v>
       </c>
@@ -23309,7 +23309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H23" s="4" t="s">
         <v>32</v>
       </c>
@@ -23317,7 +23317,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H24" s="4" t="s">
         <v>32</v>
       </c>
@@ -23325,7 +23325,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H25" s="4" t="s">
         <v>32</v>
       </c>
@@ -23333,7 +23333,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H26" s="4" t="s">
         <v>81</v>
       </c>
@@ -23341,7 +23341,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H27" s="4" t="s">
         <v>81</v>
       </c>
@@ -23349,7 +23349,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H28" s="4" t="s">
         <v>81</v>
       </c>
@@ -23357,7 +23357,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H29" s="4" t="s">
         <v>81</v>
       </c>
@@ -23365,7 +23365,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H30" s="4" t="s">
         <v>54</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H31" s="4" t="s">
         <v>54</v>
       </c>
@@ -23381,7 +23381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H32" s="4" t="s">
         <v>54</v>
       </c>
@@ -23389,7 +23389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H33" s="4" t="s">
         <v>54</v>
       </c>
@@ -23397,7 +23397,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H34" s="4" t="s">
         <v>54</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H35" s="4" t="s">
         <v>51</v>
       </c>
@@ -23413,7 +23413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H36" s="4" t="s">
         <v>51</v>
       </c>
@@ -23421,7 +23421,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H37" s="4" t="s">
         <v>51</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H38" s="4" t="s">
         <v>51</v>
       </c>
@@ -23437,7 +23437,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H39" s="4" t="s">
         <v>51</v>
       </c>
@@ -23466,16 +23466,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3">
         <v>3</v>
       </c>
@@ -23518,9 +23518,9 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3">
         <v>4</v>
       </c>
@@ -23544,7 +23544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>66</v>
       </c>
@@ -23568,7 +23568,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>93</v>
       </c>
@@ -23592,7 +23592,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>95</v>
       </c>

--- a/epictrack-api/src/api/templates/event_templates/assessment/001_EAC_Assessment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/assessment/001_EAC_Assessment.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\assessment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08BAA25-8016-4D80-8F37-BFA98CAB2D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12945" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -20,7 +26,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$N$319</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outcomes!$A$1:$E$62</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1027,12 +1046,6 @@
     <t>ChangePhaseEndEvent</t>
   </si>
   <si>
-    <t>Set "Early Engagement | Project Transitioning FROM the EA Act (2002)" to PHASE END EVENT</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Early Engagement","work_type_id": 6, "ea_act_id": 3, "event_name": "Project Transitioning FROM the EA Act (2002)"}</t>
-  </si>
-  <si>
     <t>Set "DPD Development (Proponent Time) | Start of Detailed Project Description Development" ACTUAL to thisEventActual +1</t>
   </si>
   <si>
@@ -1376,19 +1389,19 @@
   </si>
   <si>
     <t>We currently don’t know how to handle this in EPIC.track</t>
+  </si>
+  <si>
+    <t>Set "Pre-Early Engagement | Project Transitioning FROM the EA Act (2002)" to PHASE END EVENT</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Pre-Early Engagement","work_type_id": 6, "ea_act_id": 3, "event_name": "Project Transitioning FROM the EA Act (2002)"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,150 +1439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1595,7 +1464,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1604,19 +1473,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,13 +1497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1667,170 +1536,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1882,253 +1589,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2261,65 +1726,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <color theme="0"/>
       </font>
@@ -2329,28 +1758,19 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00CCFFCC"/>
+      <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2608,26 +2028,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="9" tint="0.799981688894314"/>
+    <tabColor theme="9" tint="0.79995117038483843"/>
   </sheetPr>
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.62857142857143" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" spans="2:2">
+    <row r="2" spans="2:3" ht="21">
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
@@ -2650,62 +2069,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="21" spans="2:2">
+    <row r="8" spans="2:3" ht="21">
       <c r="B8" s="44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="21" spans="2:2">
+    <row r="12" spans="2:3" ht="21">
       <c r="B12" s="44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.62857142857143" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.6285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6285714285714" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6285714285714" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.6285714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6285714285714" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.90476190476191" style="1"/>
+    <col min="1" max="1" width="6.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6328125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -3082,15 +2498,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:9">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:9">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:9">
       <c r="A16"/>
       <c r="B16"/>
     </row>
@@ -3863,51 +3279,61 @@
       <c r="B208"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13">
-      <formula1>Lookups!$B$3:$B$16</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
-      <formula1>Lookups!$D$3:$D$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13">
-      <formula1>Lookups!$F$3:$F$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$B$3:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$D$3:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$F$3:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D164" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.62857142857143" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.6285714285714" style="2" customWidth="1"/>
-    <col min="4" max="4" width="70.6285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.6285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6285714285714" style="1" customWidth="1"/>
-    <col min="7" max="9" width="14.6285714285714" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6285714285714" style="1" customWidth="1"/>
-    <col min="11" max="12" width="14.6285714285714" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6285714285714" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6285714285714" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.90476190476191" style="1"/>
+    <col min="1" max="1" width="6.6328125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="70.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="14.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="14.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:14">
+    <row r="1" spans="1:14" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -8262,7 +7688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" ht="15.75" spans="1:14">
+    <row r="101" spans="1:14">
       <c r="A101" s="2">
         <v>102</v>
       </c>
@@ -8347,7 +7773,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" ht="15.75" spans="1:14">
+    <row r="103" spans="1:14">
       <c r="A103" s="28">
         <v>104</v>
       </c>
@@ -9347,7 +8773,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="126" ht="15.75" spans="1:14">
+    <row r="126" spans="1:14">
       <c r="A126" s="2">
         <v>127</v>
       </c>
@@ -9389,7 +8815,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" ht="15.75" spans="1:14">
+    <row r="127" spans="1:14">
       <c r="A127" s="34">
         <v>128</v>
       </c>
@@ -17821,65 +17247,82 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N319">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:N319" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="H1:H319">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="END">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="END">
       <formula>NOT(ISERROR(SEARCH("END",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="START">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="START">
       <formula>NOT(ISERROR(SEARCH("START",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C319">
-      <formula1>Phases!$A$2:$A$13</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H319">
-      <formula1>Lookups!$Q$3:$Q$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F319">
-      <formula1>Lookups!$I$3:$I$39</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I319">
-      <formula1>Lookups!$S$3:$S$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G319">
-      <formula1>Lookups!$K$3:$K$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M319">
-      <formula1>Lookups!$M$3:$M$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>Phases!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C319</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$Q$3:$Q$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H319</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$I$3:$I$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F319</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$S$3:$S$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I319</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$K$3:$K$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G319</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$M$3:$M$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M319</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.62857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6285714285714" style="1" customWidth="1"/>
-    <col min="3" max="4" width="70.6285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6285714285714" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.90476190476191" style="1"/>
+    <col min="1" max="1" width="6.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="70.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -18995,45 +18438,47 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E62">
-    <extLst/>
-  </autoFilter>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B62">
-      <formula1>Events!$A$2:$A$319</formula1>
-    </dataValidation>
-  </dataValidations>
+  <autoFilter ref="A1:E62" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>Events!$A$2:$A$319</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B62</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.90476190476191" style="1"/>
-    <col min="2" max="2" width="12.6285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.6285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="108.628571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6285714285714" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.90476190476191" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="2" width="12.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="108.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -19167,10 +18612,10 @@
         <v>270</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="G6" s="2">
         <v>7</v>
@@ -19191,10 +18636,10 @@
         <v>258</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G7" s="2">
         <v>8</v>
@@ -19215,10 +18660,10 @@
         <v>264</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G8" s="2">
         <v>9</v>
@@ -19239,10 +18684,10 @@
         <v>258</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G9" s="2">
         <v>10</v>
@@ -19263,10 +18708,10 @@
         <v>258</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G10" s="2">
         <v>11</v>
@@ -19287,10 +18732,10 @@
         <v>264</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G11" s="2">
         <v>12</v>
@@ -19335,10 +18780,10 @@
         <v>270</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="G13" s="2">
         <v>14</v>
@@ -19359,10 +18804,10 @@
         <v>258</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G14" s="2">
         <v>15</v>
@@ -19383,10 +18828,10 @@
         <v>264</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G15" s="2">
         <v>16</v>
@@ -19431,10 +18876,10 @@
         <v>270</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="G17" s="2">
         <v>18</v>
@@ -19455,10 +18900,10 @@
         <v>258</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G18" s="2">
         <v>19</v>
@@ -19479,10 +18924,10 @@
         <v>264</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G19" s="2">
         <v>20</v>
@@ -19503,10 +18948,10 @@
         <v>267</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G20" s="2">
         <v>21</v>
@@ -19524,13 +18969,13 @@
         <v>Proponent withdraws Submission from the EAC Assessment process</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G21" s="2">
         <v>22</v>
@@ -19548,13 +18993,13 @@
         <v>Proponent withdraws Submission from the EAC Assessment process</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G22" s="2">
         <v>23</v>
@@ -19572,13 +19017,13 @@
         <v>Starts the "clock" for EAC Assessment</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="G23" s="2">
         <v>24</v>
@@ -19596,13 +19041,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="G24" s="2">
         <v>25</v>
@@ -19623,10 +19068,10 @@
         <v>264</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G25" s="2">
         <v>26</v>
@@ -19647,10 +19092,10 @@
         <v>267</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G26" s="2">
         <v>27</v>
@@ -19668,13 +19113,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G27" s="2">
         <v>28</v>
@@ -19692,13 +19137,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G28" s="2">
         <v>29</v>
@@ -19719,10 +19164,10 @@
         <v>264</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G29" s="2">
         <v>30</v>
@@ -19743,10 +19188,10 @@
         <v>267</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G30" s="2">
         <v>31</v>
@@ -19764,13 +19209,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G31" s="2">
         <v>32</v>
@@ -19788,13 +19233,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G32" s="2">
         <v>33</v>
@@ -19815,10 +19260,10 @@
         <v>258</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G33" s="2">
         <v>34</v>
@@ -19839,10 +19284,10 @@
         <v>258</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G34" s="2">
         <v>35</v>
@@ -19863,10 +19308,10 @@
         <v>261</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G35" s="2">
         <v>36</v>
@@ -19884,13 +19329,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="G36" s="2">
         <v>38</v>
@@ -19911,10 +19356,10 @@
         <v>264</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G37" s="2">
         <v>39</v>
@@ -19935,10 +19380,10 @@
         <v>267</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G38" s="2">
         <v>40</v>
@@ -19956,13 +19401,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G39" s="2">
         <v>41</v>
@@ -19980,13 +19425,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G40" s="2">
         <v>42</v>
@@ -20007,10 +19452,10 @@
         <v>264</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G41" s="2">
         <v>43</v>
@@ -20031,10 +19476,10 @@
         <v>267</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G42" s="2">
         <v>44</v>
@@ -20052,13 +19497,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D43" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G43" s="2">
         <v>45</v>
@@ -20076,13 +19521,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G44" s="2">
         <v>46</v>
@@ -20100,13 +19545,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="G45" s="2">
         <v>47</v>
@@ -20127,10 +19572,10 @@
         <v>264</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G46" s="2">
         <v>48</v>
@@ -20151,10 +19596,10 @@
         <v>267</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G47" s="2">
         <v>49</v>
@@ -20172,13 +19617,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G48" s="2">
         <v>50</v>
@@ -20196,13 +19641,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D49" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G49" s="2">
         <v>51</v>
@@ -20223,10 +19668,10 @@
         <v>264</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G50" s="2">
         <v>52</v>
@@ -20247,10 +19692,10 @@
         <v>267</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G51" s="2">
         <v>53</v>
@@ -20268,13 +19713,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D52" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G52" s="2">
         <v>54</v>
@@ -20292,13 +19737,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D53" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G53" s="2">
         <v>55</v>
@@ -20316,13 +19761,13 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="G54" s="2">
         <v>56</v>
@@ -20343,10 +19788,10 @@
         <v>258</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G55" s="2">
         <v>58</v>
@@ -20367,10 +19812,10 @@
         <v>258</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G56" s="2">
         <v>59</v>
@@ -20388,13 +19833,13 @@
         <v>Project is Referred to Minister for Termination</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G57" s="2">
         <v>60</v>
@@ -20415,10 +19860,10 @@
         <v>261</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G58" s="2">
         <v>61</v>
@@ -20439,10 +19884,10 @@
         <v>270</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G59" s="2">
         <v>63</v>
@@ -20463,10 +19908,10 @@
         <v>258</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G60" s="2">
         <v>64</v>
@@ -20487,10 +19932,10 @@
         <v>258</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G61" s="2">
         <v>65</v>
@@ -20511,10 +19956,10 @@
         <v>264</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G62" s="2">
         <v>67</v>
@@ -20535,10 +19980,10 @@
         <v>267</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G63" s="2">
         <v>68</v>
@@ -20556,13 +20001,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G64" s="2">
         <v>69</v>
@@ -20580,13 +20025,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D65" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G65" s="2">
         <v>70</v>
@@ -20607,10 +20052,10 @@
         <v>264</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G66" s="2">
         <v>71</v>
@@ -20631,10 +20076,10 @@
         <v>267</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G67" s="2">
         <v>72</v>
@@ -20652,13 +20097,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D68" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G68" s="2">
         <v>73</v>
@@ -20676,13 +20121,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D69" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G69" s="2">
         <v>74</v>
@@ -20703,10 +20148,10 @@
         <v>264</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G70" s="2">
         <v>75</v>
@@ -20727,10 +20172,10 @@
         <v>267</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G71" s="2">
         <v>76</v>
@@ -20748,13 +20193,13 @@
         <v>Project is Terminated</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G72" s="2">
         <v>77</v>
@@ -20772,13 +20217,13 @@
         <v>Project is Terminated</v>
       </c>
       <c r="D73" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G73" s="2">
         <v>78</v>
@@ -20796,13 +20241,13 @@
         <v>Refer the Project to the CEAO for Further Decision</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G74" s="2">
         <v>79</v>
@@ -20823,10 +20268,10 @@
         <v>258</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G75" s="2">
         <v>80</v>
@@ -20847,10 +20292,10 @@
         <v>264</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G76" s="2">
         <v>81</v>
@@ -20871,10 +20316,10 @@
         <v>267</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G77" s="2">
         <v>82</v>
@@ -20892,13 +20337,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G78" s="2">
         <v>83</v>
@@ -20916,13 +20361,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D79" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G79" s="2">
         <v>84</v>
@@ -20943,10 +20388,10 @@
         <v>264</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G80" s="2">
         <v>85</v>
@@ -20967,10 +20412,10 @@
         <v>267</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G81" s="2">
         <v>86</v>
@@ -20988,13 +20433,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D82" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G82" s="2">
         <v>87</v>
@@ -21012,13 +20457,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D83" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G83" s="2">
         <v>88</v>
@@ -21036,13 +20481,13 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="G84" s="2">
         <v>89</v>
@@ -21063,10 +20508,10 @@
         <v>258</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G85" s="2">
         <v>91</v>
@@ -21087,10 +20532,10 @@
         <v>258</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G86" s="2">
         <v>92</v>
@@ -21108,13 +20553,13 @@
         <v>Set federalInvolvement to "None"</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G87" s="2">
         <v>94</v>
@@ -21132,13 +20577,13 @@
         <v>Set federalInvolvement to "None"</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G88" s="2">
         <v>96</v>
@@ -21156,13 +20601,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G89" s="2">
         <v>97</v>
@@ -21183,10 +20628,10 @@
         <v>264</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G90" s="2">
         <v>98</v>
@@ -21207,10 +20652,10 @@
         <v>267</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G91" s="2">
         <v>99</v>
@@ -21228,13 +20673,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G92" s="2">
         <v>100</v>
@@ -21252,13 +20697,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D93" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G93" s="2">
         <v>101</v>
@@ -21279,10 +20724,10 @@
         <v>264</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G94" s="2">
         <v>102</v>
@@ -21303,10 +20748,10 @@
         <v>267</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G95" s="2">
         <v>103</v>
@@ -21324,13 +20769,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D96" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G96" s="2">
         <v>104</v>
@@ -21348,13 +20793,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D97" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G97" s="2">
         <v>105</v>
@@ -21375,10 +20820,10 @@
         <v>258</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G98" s="2">
         <v>106</v>
@@ -21399,10 +20844,10 @@
         <v>258</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G99" s="2">
         <v>107</v>
@@ -21423,10 +20868,10 @@
         <v>261</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G100" s="2">
         <v>108</v>
@@ -21444,13 +20889,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D101" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="G101" s="2">
         <v>110</v>
@@ -21471,10 +20916,10 @@
         <v>264</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G102" s="2">
         <v>111</v>
@@ -21495,10 +20940,10 @@
         <v>267</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G103" s="2">
         <v>112</v>
@@ -21516,13 +20961,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G104" s="2">
         <v>113</v>
@@ -21540,13 +20985,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D105" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G105" s="2">
         <v>114</v>
@@ -21567,10 +21012,10 @@
         <v>264</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G106" s="2">
         <v>115</v>
@@ -21591,10 +21036,10 @@
         <v>267</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G107" s="2">
         <v>116</v>
@@ -21612,13 +21057,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D108" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G108" s="2">
         <v>117</v>
@@ -21636,13 +21081,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D109" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G109" s="2">
         <v>118</v>
@@ -21660,13 +21105,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D110" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="G110" s="2">
         <v>119</v>
@@ -21687,10 +21132,10 @@
         <v>264</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G111" s="2">
         <v>120</v>
@@ -21711,10 +21156,10 @@
         <v>267</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G112" s="2">
         <v>121</v>
@@ -21732,13 +21177,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G113" s="2">
         <v>122</v>
@@ -21756,13 +21201,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D114" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G114" s="2">
         <v>123</v>
@@ -21783,10 +21228,10 @@
         <v>264</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G115" s="2">
         <v>124</v>
@@ -21807,10 +21252,10 @@
         <v>267</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G116" s="2">
         <v>125</v>
@@ -21828,13 +21273,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D117" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G117" s="2">
         <v>126</v>
@@ -21852,13 +21297,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D118" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G118" s="2">
         <v>127</v>
@@ -21879,10 +21324,10 @@
         <v>258</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G119" s="2">
         <v>128</v>
@@ -21903,10 +21348,10 @@
         <v>258</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G120" s="2">
         <v>129</v>
@@ -21927,10 +21372,10 @@
         <v>261</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G121" s="2">
         <v>130</v>
@@ -21948,13 +21393,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D122" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="G122" s="2">
         <v>132</v>
@@ -21975,10 +21420,10 @@
         <v>264</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G123" s="2">
         <v>133</v>
@@ -21999,10 +21444,10 @@
         <v>267</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G124" s="2">
         <v>134</v>
@@ -22020,13 +21465,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G125" s="2">
         <v>135</v>
@@ -22044,13 +21489,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D126" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G126" s="2">
         <v>136</v>
@@ -22071,10 +21516,10 @@
         <v>264</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G127" s="2">
         <v>137</v>
@@ -22095,10 +21540,10 @@
         <v>267</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G128" s="2">
         <v>138</v>
@@ -22116,13 +21561,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D129" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G129" s="2">
         <v>139</v>
@@ -22140,13 +21585,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D130" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G130" s="2">
         <v>140</v>
@@ -22164,13 +21609,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D131" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="G131" s="2">
         <v>141</v>
@@ -22191,10 +21636,10 @@
         <v>264</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G132" s="2">
         <v>142</v>
@@ -22215,10 +21660,10 @@
         <v>267</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G133" s="2">
         <v>143</v>
@@ -22236,13 +21681,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G134" s="2">
         <v>144</v>
@@ -22260,13 +21705,13 @@
         <v>EAC Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D135" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G135" s="2">
         <v>145</v>
@@ -22287,10 +21732,10 @@
         <v>264</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G136" s="2">
         <v>146</v>
@@ -22311,10 +21756,10 @@
         <v>267</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G137" s="2">
         <v>147</v>
@@ -22332,13 +21777,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D138" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G138" s="2">
         <v>148</v>
@@ -22356,13 +21801,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D139" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G139" s="2">
         <v>149</v>
@@ -22383,10 +21828,10 @@
         <v>258</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G140" s="2">
         <v>150</v>
@@ -22407,10 +21852,10 @@
         <v>264</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G141" s="2">
         <v>151</v>
@@ -22431,10 +21876,10 @@
         <v>267</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G142" s="2">
         <v>152</v>
@@ -22452,13 +21897,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D143" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G143" s="2">
         <v>153</v>
@@ -22476,13 +21921,13 @@
         <v>Proponent withdraws Project from EA process</v>
       </c>
       <c r="D144" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G144" s="2">
         <v>154</v>
@@ -22500,13 +21945,13 @@
         <v>Environmental Assessment Certificate GRANTED</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G145" s="2">
         <v>155</v>
@@ -22524,13 +21969,13 @@
         <v>Environmental Assessment Certificate GRANTED</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="G146" s="2">
         <v>156</v>
@@ -22548,13 +21993,13 @@
         <v>Environmental Assessment Certificate REFUSED</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G147" s="2">
         <v>157</v>
@@ -22572,13 +22017,13 @@
         <v>Environmental Assessment Certificate REFUSED</v>
       </c>
       <c r="D148" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="G148" s="2">
         <v>158</v>
@@ -23437,63 +22882,67 @@
       <c r="G290" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B290">
-      <formula1>Outcomes!$A$2:$A$62</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+          <x14:formula1>
+            <xm:f>Outcomes!$A$2:$A$62</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B290</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
-    <tabColor theme="7" tint="0.799981688894314"/>
+    <tabColor theme="7" tint="0.79995117038483843"/>
   </sheetPr>
   <dimension ref="A1:BG39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.62857142857143" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.6285714285714" style="5" customWidth="1"/>
-    <col min="3" max="3" width="3.62857142857143" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.6285714285714" style="5" customWidth="1"/>
-    <col min="5" max="5" width="3.62857142857143" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.6285714285714" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.62857142857143" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.6285714285714" style="5" customWidth="1"/>
-    <col min="9" max="9" width="24.6285714285714" style="5" customWidth="1"/>
-    <col min="10" max="10" width="3.62857142857143" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.6285714285714" style="5" customWidth="1"/>
-    <col min="12" max="12" width="3.62857142857143" style="5" customWidth="1"/>
-    <col min="13" max="13" width="12.6285714285714" style="5" customWidth="1"/>
-    <col min="14" max="14" width="3.62857142857143" style="5" customWidth="1"/>
-    <col min="15" max="15" width="30.6285714285714" style="5" customWidth="1"/>
-    <col min="16" max="16" width="3.62857142857143" style="5" customWidth="1"/>
-    <col min="17" max="17" width="14.6285714285714" style="5" customWidth="1"/>
-    <col min="18" max="18" width="3.62857142857143" style="5" customWidth="1"/>
-    <col min="19" max="19" width="14.6285714285714" style="5" customWidth="1"/>
-    <col min="20" max="58" width="3.62857142857143" style="5" customWidth="1"/>
-    <col min="59" max="59" width="8.90476190476191" style="5"/>
-    <col min="60" max="16384" width="8.90476190476191" style="1"/>
+    <col min="1" max="1" width="3.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="3.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="3.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="3.6328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="3.6328125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="3.6328125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="30.6328125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="3.6328125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="3.6328125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="14.6328125" style="5" customWidth="1"/>
+    <col min="20" max="58" width="3.6328125" style="5" customWidth="1"/>
+    <col min="59" max="59" width="8.90625" style="5"/>
+    <col min="60" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1"/>
-    <row r="2" s="6" customFormat="1" spans="1:59">
+    <row r="1" spans="1:59" s="5" customFormat="1"/>
+    <row r="2" spans="1:59" s="6" customFormat="1">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="6" t="s">
@@ -23502,11 +22951,11 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="6" t="s">
@@ -23518,11 +22967,11 @@
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
@@ -23565,9 +23014,9 @@
       <c r="BF2" s="7"/>
       <c r="BG2" s="7"/>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="1:59">
       <c r="B3" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -23588,7 +23037,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>56</v>
@@ -23597,12 +23046,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="1:59">
       <c r="B4" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -23620,21 +23069,21 @@
         <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59">
+      <c r="B5" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>55</v>
@@ -23646,15 +23095,15 @@
         <v>41</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="1:59">
       <c r="B6" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>55</v>
@@ -23666,12 +23115,12 @@
         <v>62</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59">
       <c r="B7" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>55</v>
@@ -23683,12 +23132,12 @@
         <v>93</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
       <c r="B8" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>55</v>
@@ -23700,12 +23149,12 @@
         <v>119</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
       <c r="B9" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>55</v>
@@ -23714,15 +23163,15 @@
         <v>108</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
+      <c r="B10" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>55</v>
@@ -23731,12 +23180,12 @@
         <v>67</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
       <c r="B11" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>55</v>
@@ -23746,9 +23195,9 @@
       </c>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="1:59">
       <c r="B12" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>55</v>
@@ -23758,9 +23207,9 @@
       </c>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="1:59">
       <c r="B13" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>119</v>
@@ -23770,9 +23219,9 @@
       </c>
       <c r="O13" s="8"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="1:59">
       <c r="B14" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>119</v>
@@ -23782,27 +23231,27 @@
       </c>
       <c r="O14" s="8"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="1:59">
       <c r="B15" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="1:59">
       <c r="B16" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="8:9">
@@ -23834,7 +23283,7 @@
         <v>41</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="8:9">
@@ -23858,7 +23307,7 @@
         <v>41</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="8:9">
@@ -23938,7 +23387,7 @@
         <v>65</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="8:9">
@@ -23970,7 +23419,7 @@
         <v>62</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="8:9">
@@ -23978,7 +23427,7 @@
         <v>62</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="8:9">
@@ -23990,38 +23439,36 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="O3:O15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:O15">
     <sortCondition ref="O3:O15"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H39" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$K$3:$K$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="40.0857142857143" customWidth="1"/>
-    <col min="4" max="4" width="10.8190476190476" customWidth="1"/>
+    <col min="3" max="3" width="40.08984375" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="2">
         <v>3</v>
       </c>
@@ -24033,35 +23480,40 @@
         <v>Project Transitioning FROM the EA Act (2002)</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E1" s="2">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>Events!$A$2:$A$319</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
+          <x14:formula1>
+            <xm:f>Events!$A$2:$A$319</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2">
         <v>4</v>
       </c>
@@ -24073,19 +23525,19 @@
         <v>#N/A</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G1" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2">
         <v>66</v>
       </c>
@@ -24097,19 +23549,19 @@
         <v>Refer for Minister's Process Planning</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G2" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2">
         <v>93</v>
       </c>
@@ -24121,19 +23573,19 @@
         <v>Refer for Minister's Process Planning</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G3" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="2">
         <v>95</v>
       </c>
@@ -24145,25 +23597,31 @@
         <v>Unknown QQQ (how to set federalInvolvement properly)</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G4" s="2">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4">
-      <formula1>Outcomes!$A$2:$A$62</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
+          <x14:formula1>
+            <xm:f>Outcomes!$A$2:$A$62</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>